--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/HBCP/ontologies/BCW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA5B9ED-BFF1-474B-847D-BE5787B44274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D3EFAF-D669-674F-9416-67C5A4AB4C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="338">
   <si>
     <t>ID</t>
   </si>
@@ -932,13 +932,115 @@
   </si>
   <si>
     <t>Proposed</t>
+  </si>
+  <si>
+    <t>BCIO:037001</t>
+  </si>
+  <si>
+    <t>BCIO:037002</t>
+  </si>
+  <si>
+    <t>BCIO:037003</t>
+  </si>
+  <si>
+    <t>BCIO:037004</t>
+  </si>
+  <si>
+    <t>BCIO:037005</t>
+  </si>
+  <si>
+    <t>BCIO:037006</t>
+  </si>
+  <si>
+    <t>BCIO:037007</t>
+  </si>
+  <si>
+    <t>BCIO:037008</t>
+  </si>
+  <si>
+    <t>BCIO:037009</t>
+  </si>
+  <si>
+    <t>BCIO:037010</t>
+  </si>
+  <si>
+    <t>BCIO:037011</t>
+  </si>
+  <si>
+    <t>BCIO:037012</t>
+  </si>
+  <si>
+    <t>BCIO:037013</t>
+  </si>
+  <si>
+    <t>BCIO:037014</t>
+  </si>
+  <si>
+    <t>BCIO:037015</t>
+  </si>
+  <si>
+    <t>BCIO:037016</t>
+  </si>
+  <si>
+    <t>BCIO:037017</t>
+  </si>
+  <si>
+    <t>BCIO:037018</t>
+  </si>
+  <si>
+    <t>BCIO:037019</t>
+  </si>
+  <si>
+    <t>BCIO:037020</t>
+  </si>
+  <si>
+    <t>BCIO:037021</t>
+  </si>
+  <si>
+    <t>BCIO:037022</t>
+  </si>
+  <si>
+    <t>BCIO:037023</t>
+  </si>
+  <si>
+    <t>MF:0000020</t>
+  </si>
+  <si>
+    <t>BCIO:037024</t>
+  </si>
+  <si>
+    <t>BCIO:037025</t>
+  </si>
+  <si>
+    <t>BCIO:037026</t>
+  </si>
+  <si>
+    <t>BCIO:037027</t>
+  </si>
+  <si>
+    <t>BCIO:037028</t>
+  </si>
+  <si>
+    <t>BCIO:037029</t>
+  </si>
+  <si>
+    <t>BCIO:037030</t>
+  </si>
+  <si>
+    <t>BCIO:037031</t>
+  </si>
+  <si>
+    <t>BCIO:037032</t>
+  </si>
+  <si>
+    <t>BCIO:037033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +1052,27 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -969,14 +1092,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,13 +1406,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H32" workbookViewId="0">
-      <selection activeCell="X55" sqref="X55"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="16">
@@ -1372,6 +1500,9 @@
       </c>
     </row>
     <row r="2" spans="1:27">
+      <c r="A2" t="s">
+        <v>304</v>
+      </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -1404,6 +1535,9 @@
       </c>
     </row>
     <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>305</v>
+      </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1439,6 +1573,9 @@
       </c>
     </row>
     <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>306</v>
+      </c>
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -1509,6 +1646,9 @@
       </c>
     </row>
     <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>307</v>
+      </c>
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -1544,6 +1684,9 @@
       </c>
     </row>
     <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
@@ -1579,6 +1722,9 @@
       </c>
     </row>
     <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>309</v>
+      </c>
       <c r="B8" t="s">
         <v>65</v>
       </c>
@@ -1614,6 +1760,9 @@
       </c>
     </row>
     <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>310</v>
+      </c>
       <c r="B9" t="s">
         <v>70</v>
       </c>
@@ -1716,6 +1865,9 @@
       </c>
     </row>
     <row r="12" spans="1:27">
+      <c r="A12" s="2" t="s">
+        <v>311</v>
+      </c>
       <c r="B12" t="s">
         <v>88</v>
       </c>
@@ -1748,6 +1900,9 @@
       </c>
     </row>
     <row r="13" spans="1:27">
+      <c r="A13" s="2" t="s">
+        <v>312</v>
+      </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
@@ -1783,6 +1938,9 @@
       </c>
     </row>
     <row r="14" spans="1:27">
+      <c r="A14" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="B14" t="s">
         <v>97</v>
       </c>
@@ -1815,6 +1973,9 @@
       </c>
     </row>
     <row r="15" spans="1:27">
+      <c r="A15" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="B15" t="s">
         <v>101</v>
       </c>
@@ -1920,6 +2081,9 @@
       </c>
     </row>
     <row r="18" spans="1:24">
+      <c r="A18" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="B18" t="s">
         <v>121</v>
       </c>
@@ -1952,6 +2116,9 @@
       </c>
     </row>
     <row r="19" spans="1:24">
+      <c r="A19" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="B19" t="s">
         <v>127</v>
       </c>
@@ -1984,6 +2151,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
+      <c r="A20" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="B20" t="s">
         <v>132</v>
       </c>
@@ -2013,6 +2183,9 @@
       </c>
     </row>
     <row r="21" spans="1:24">
+      <c r="A21" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="B21" t="s">
         <v>137</v>
       </c>
@@ -2080,6 +2253,9 @@
       </c>
     </row>
     <row r="23" spans="1:24">
+      <c r="A23" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -2109,6 +2285,9 @@
       </c>
     </row>
     <row r="24" spans="1:24">
+      <c r="A24" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="B24" t="s">
         <v>151</v>
       </c>
@@ -2144,6 +2323,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
+      <c r="A25" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="B25" t="s">
         <v>156</v>
       </c>
@@ -2179,6 +2361,9 @@
       </c>
     </row>
     <row r="26" spans="1:24">
+      <c r="A26" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="B26" t="s">
         <v>161</v>
       </c>
@@ -2214,6 +2399,9 @@
       </c>
     </row>
     <row r="27" spans="1:24">
+      <c r="A27" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="B27" t="s">
         <v>166</v>
       </c>
@@ -2249,6 +2437,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
+      <c r="A28" s="2" t="s">
+        <v>324</v>
+      </c>
       <c r="B28" t="s">
         <v>171</v>
       </c>
@@ -2322,6 +2513,9 @@
       </c>
     </row>
     <row r="30" spans="1:24">
+      <c r="A30" s="2" t="s">
+        <v>325</v>
+      </c>
       <c r="B30" t="s">
         <v>185</v>
       </c>
@@ -2450,6 +2644,9 @@
       </c>
     </row>
     <row r="34" spans="1:27">
+      <c r="A34" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="B34" t="s">
         <v>204</v>
       </c>
@@ -2482,6 +2679,9 @@
       </c>
     </row>
     <row r="35" spans="1:27">
+      <c r="A35" s="3" t="s">
+        <v>327</v>
+      </c>
       <c r="B35" t="s">
         <v>146</v>
       </c>
@@ -2511,6 +2711,9 @@
       </c>
     </row>
     <row r="36" spans="1:27">
+      <c r="A36" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="B36" t="s">
         <v>213</v>
       </c>
@@ -2578,6 +2781,9 @@
       </c>
     </row>
     <row r="38" spans="1:27">
+      <c r="A38" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="B38" t="s">
         <v>223</v>
       </c>
@@ -2636,6 +2842,9 @@
       </c>
     </row>
     <row r="40" spans="1:27">
+      <c r="A40" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="B40" t="s">
         <v>231</v>
       </c>
@@ -2773,6 +2982,9 @@
       </c>
     </row>
     <row r="44" spans="1:27">
+      <c r="A44" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="B44" t="s">
         <v>254</v>
       </c>
@@ -2802,6 +3014,9 @@
       </c>
     </row>
     <row r="45" spans="1:27">
+      <c r="A45" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="B45" t="s">
         <v>257</v>
       </c>
@@ -2837,6 +3052,9 @@
       </c>
     </row>
     <row r="46" spans="1:27">
+      <c r="A46" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="B46" t="s">
         <v>262</v>
       </c>
@@ -2869,6 +3087,9 @@
       </c>
     </row>
     <row r="47" spans="1:27">
+      <c r="A47" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="B47" t="s">
         <v>221</v>
       </c>
@@ -2898,6 +3119,9 @@
       </c>
     </row>
     <row r="48" spans="1:27">
+      <c r="A48" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="B48" t="s">
         <v>269</v>
       </c>
@@ -2962,6 +3186,9 @@
       </c>
     </row>
     <row r="50" spans="1:24">
+      <c r="A50" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="B50" t="s">
         <v>280</v>
       </c>
@@ -3029,6 +3256,9 @@
       </c>
     </row>
     <row r="52" spans="1:24">
+      <c r="A52" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="B52" t="s">
         <v>290</v>
       </c>
@@ -3093,6 +3323,9 @@
       </c>
     </row>
     <row r="54" spans="1:24">
+      <c r="A54" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="B54" t="s">
         <v>299</v>
       </c>
@@ -3125,6 +3358,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" display="http://purl.obolibrary.org/obo/MF_0000020" xr:uid="{91F113A4-06C0-3D4E-9801-859AC214B85F}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or some part or aspect of it is or or is likely to be liked or engaged with.</t>
+          <t>How far an intervention or some part of it is or or is likely to be liked or engaged with.</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
@@ -709,7 +709,11 @@
         </is>
       </c>
       <c r="V3" s="2" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr"/>
+      <c r="W3" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X3" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -4380,7 +4380,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037033</t>
+          <t>BCIO:0050000</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA54"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A disposition of an environmental system that together with behavioural capability makes a behaviour possible or facilitates it.</t>
+          <t>An environmental disposition that together with behavioural capability makes a behaviour possible or facilitates it.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1867,7 +1867,7 @@
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1905,7 +1905,11 @@
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr"/>
-      <c r="W19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X19" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2437,39 +2441,39 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037020</t>
+          <t>BCIO:0050001</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>environmental restructuring behaviour change intervention</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
+          <t>A disposition inhering in an environmental system.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
+          <t>A disposition of an environment.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
@@ -2478,30 +2482,18 @@
       <c r="M27" s="2" t="inlineStr"/>
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>environmental restructuring</t>
-        </is>
-      </c>
+      <c r="P27" s="2" t="inlineStr"/>
+      <c r="Q27" s="2" t="inlineStr"/>
       <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
-        <is>
-          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
-        </is>
-      </c>
+      <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="U27" s="2" t="inlineStr"/>
       <c r="V27" s="2" t="inlineStr"/>
-      <c r="W27" s="2" t="inlineStr"/>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X27" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2514,34 +2506,34 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037021</t>
+          <t>BCIO:037020</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>equity intervention criterion</t>
+          <t>environmental restructuring behaviour change intervention</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
+          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -2562,13 +2554,13 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>environmental restructuring</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr"/>
@@ -2591,43 +2583,39 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:037021</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>equity intervention criterion</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Human activity that is individual human behaviour or population behaviour</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>The actions of people, either as individuals or groups or populations.</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>'individual human behaviour' or 'population behaviour'</t>
-        </is>
-      </c>
+          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>human activity</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
@@ -2638,16 +2626,20 @@
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+        </is>
+      </c>
       <c r="T29" s="2" t="inlineStr"/>
       <c r="U29" s="2" t="inlineStr">
         <is>
@@ -2668,29 +2660,33 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037022</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>incentivisation  behaviour change intervention</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>Human activity that is individual human behaviour or population behaviour</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Applying rewards to a behaviour.</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
+          <t>The actions of people, either as individuals or groups or populations.</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>'individual human behaviour' or 'population behaviour'</t>
+        </is>
+      </c>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>human activity</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -2700,7 +2696,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
@@ -2711,20 +2707,16 @@
       <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
+          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>incentivisation</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
-        </is>
-      </c>
+      <c r="S30" s="2" t="inlineStr"/>
       <c r="T30" s="2" t="inlineStr"/>
       <c r="U30" s="2" t="inlineStr">
         <is>
@@ -2745,29 +2737,29 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:037022</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>incentivisation  behaviour change intervention</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>The actions of individual people.</t>
+          <t>Applying rewards to a behaviour.</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2777,7 +2769,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
@@ -2786,14 +2778,22 @@
       <c r="M31" s="2" t="inlineStr"/>
       <c r="N31" s="2" t="inlineStr"/>
       <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>incentivisation</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
+        </is>
+      </c>
       <c r="T31" s="2" t="inlineStr"/>
       <c r="U31" s="2" t="inlineStr">
         <is>
@@ -2814,29 +2814,29 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Something done to influence an outcome.</t>
+          <t>The actions of individual people.</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
@@ -2856,7 +2856,11 @@
       <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
-      <c r="Q32" s="2" t="inlineStr"/>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
       <c r="R32" s="2" t="inlineStr"/>
       <c r="S32" s="2" t="inlineStr"/>
       <c r="T32" s="2" t="inlineStr"/>
@@ -2879,39 +2883,39 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Something done to influence an outcome.</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
@@ -2921,11 +2925,7 @@
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
+      <c r="Q33" s="2" t="inlineStr"/>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="S33" s="2" t="inlineStr"/>
       <c r="T33" s="2" t="inlineStr"/>
@@ -2948,39 +2948,39 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037023</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>intervention stakeholder</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Any person or organisation with a legitimate interest in an intervention</t>
+          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
@@ -2989,14 +2989,10 @@
       <c r="M34" s="2" t="inlineStr"/>
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="P34" s="2" t="inlineStr"/>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr"/>
@@ -3019,177 +3015,173 @@
       <c r="AA34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037023</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>intervention stakeholder</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Any person or organisation with a legitimate interest in an intervention</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>social role</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr"/>
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr"/>
+      <c r="X35" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y35" s="2" t="inlineStr"/>
+      <c r="Z35" s="2" t="inlineStr"/>
+      <c r="AA35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>A bodily process that is of a type such that it can of itself be conscious.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>A brain process that involves conscious exerience.</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
         <is>
           <t>MF:0000020 MF definition should be tidied up to confirm to recommended structure and perhaps parent is better as brain process?</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037024</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>modelling behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>Providing an example for people to imitate, learn from or aspire to.</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>modelling</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
-      <c r="X36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y36" s="2" t="inlineStr"/>
-      <c r="Z36" s="2" t="inlineStr"/>
-      <c r="AA36" s="2" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:037024</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>modelling behaviour change intervention</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour.</t>
+          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
+          <t>Providing an example for people to imitate, learn from or aspire to.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -3199,7 +3191,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
@@ -3210,12 +3202,20 @@
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006133 in MoA to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q37" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>modelling</t>
+        </is>
+      </c>
       <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
+        </is>
+      </c>
       <c r="T37" s="2" t="inlineStr"/>
       <c r="U37" s="2" t="inlineStr">
         <is>
@@ -3236,39 +3236,39 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037025</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>negative behavioural contingency</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A process in which an undesirable event results from a behaviour.</t>
+          <t>A psychological process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a punishment or cost.</t>
+          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
+          <t>psychological process</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
@@ -3279,7 +3279,7 @@
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:006133 in MoA to correct the definition</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr"/>
@@ -3305,29 +3305,29 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:037025</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>negative behavioural contingency</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A process in which an undesirable event results from a behaviour.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Linking a behaviour to a punishment or cost.</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
@@ -3346,7 +3346,11 @@
       <c r="M39" s="2" t="inlineStr"/>
       <c r="N39" s="2" t="inlineStr"/>
       <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
       <c r="Q39" s="2" t="inlineStr"/>
       <c r="R39" s="2" t="inlineStr"/>
       <c r="S39" s="2" t="inlineStr"/>
@@ -3370,29 +3374,29 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037026</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>persuasive behaviour change intervention</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
+          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -3402,7 +3406,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
@@ -3411,16 +3415,8 @@
       <c r="M40" s="2" t="inlineStr"/>
       <c r="N40" s="2" t="inlineStr"/>
       <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>persuasion</t>
-        </is>
-      </c>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr"/>
       <c r="R40" s="2" t="inlineStr"/>
       <c r="S40" s="2" t="inlineStr"/>
       <c r="T40" s="2" t="inlineStr"/>
@@ -3443,39 +3439,39 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:037026</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>persuasive behaviour change intervention</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>A person's abilities arising from their physique and bodily functioning.</t>
+          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
@@ -3486,16 +3482,16 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q41" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>persuasion</t>
+        </is>
+      </c>
       <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr">
-        <is>
-          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
-        </is>
-      </c>
+      <c r="S41" s="2" t="inlineStr"/>
       <c r="T41" s="2" t="inlineStr"/>
       <c r="U41" s="2" t="inlineStr">
         <is>
@@ -3516,29 +3512,29 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
+          <t>A person's abilities arising from their physique and bodily functioning.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -3559,14 +3555,14 @@
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006089 in MoA?</t>
+          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr"/>
       <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr"/>
@@ -3589,39 +3585,39 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
+          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>The actions of groups of people or populations.</t>
+          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>population human activity</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
@@ -3632,12 +3628,16 @@
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
+          <t>Amend BCIO:006089 in MoA?</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr"/>
       <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+        </is>
+      </c>
       <c r="T43" s="2" t="inlineStr"/>
       <c r="U43" s="2" t="inlineStr">
         <is>
@@ -3653,48 +3653,44 @@
       </c>
       <c r="Y43" s="2" t="inlineStr"/>
       <c r="Z43" s="2" t="inlineStr"/>
-      <c r="AA43" s="2" t="inlineStr">
-        <is>
-          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
-        </is>
-      </c>
+      <c r="AA43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037027</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>positive behavioural contingency</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A process in which a desirable event follows from a behaviour.</t>
+          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a reward</t>
+          <t>The actions of groups of people or populations.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
+          <t>population human activity</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
@@ -3705,7 +3701,7 @@
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr"/>
@@ -3726,39 +3722,43 @@
       </c>
       <c r="Y44" s="2" t="inlineStr"/>
       <c r="Z44" s="2" t="inlineStr"/>
-      <c r="AA44" s="2" t="inlineStr"/>
+      <c r="AA44" s="2" t="inlineStr">
+        <is>
+          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037028</t>
+          <t>BCIO:037027</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>practicability intervention criterion</t>
+          <t>positive behavioural contingency</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
+          <t>A process in which a desirable event follows from a behaviour.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
+          <t>Linking a behaviour to a reward</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
@@ -3774,20 +3774,12 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>practicability</t>
-        </is>
-      </c>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr"/>
       <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr">
-        <is>
-          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
-        </is>
-      </c>
+      <c r="S45" s="2" t="inlineStr"/>
       <c r="T45" s="2" t="inlineStr"/>
       <c r="U45" s="2" t="inlineStr">
         <is>
@@ -3808,39 +3800,39 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037029</t>
+          <t>BCIO:037028</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>psychological behavioural capability</t>
+          <t>practicability intervention criterion</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
+          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
@@ -3851,16 +3843,20 @@
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF as distinct from mental capability?</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>psychological capability</t>
+          <t>practicability</t>
         </is>
       </c>
       <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
+        </is>
+      </c>
       <c r="T46" s="2" t="inlineStr"/>
       <c r="U46" s="2" t="inlineStr">
         <is>
@@ -3881,34 +3877,34 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037030</t>
+          <t>BCIO:037029</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>psychological behavioural capability</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
+          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>A process underpinning experience or generation of behaviour.</t>
+          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -3924,10 +3920,14 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="inlineStr"/>
+          <t>Add to MoA and MF as distinct from mental capability?</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>psychological capability</t>
+        </is>
+      </c>
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr"/>
       <c r="T47" s="2" t="inlineStr"/>
@@ -3950,29 +3950,29 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037031</t>
+          <t>BCIO:037030</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>reflective motivation</t>
+          <t>psychological process</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves reflective thinking.</t>
+          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Psychological processes of conscious planning and decision making.</t>
+          <t>A process underpinning experience or generation of behaviour.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -3993,16 +3993,12 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA</t>
+          <t>Add to MoA and MF?</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr"/>
       <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
-        </is>
-      </c>
+      <c r="S48" s="2" t="inlineStr"/>
       <c r="T48" s="2" t="inlineStr"/>
       <c r="U48" s="2" t="inlineStr">
         <is>
@@ -4023,29 +4019,29 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:037031</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>reflective motivation</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
+          <t>A motivation that involves reflective thinking.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Conscious reasoning, estimation, calculation or decision making.</t>
+          <t>Psychological processes of conscious planning and decision making.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -4066,12 +4062,16 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006112 to reflect improved definition?</t>
+          <t>Add to MoA</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr"/>
       <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
+        </is>
+      </c>
       <c r="T49" s="2" t="inlineStr"/>
       <c r="U49" s="2" t="inlineStr">
         <is>
@@ -4092,29 +4092,29 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037032</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>restriction behaviour change intervention</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
+          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Using formal social rules to set boundaries for a behaviour.</t>
+          <t>Conscious reasoning, estimation, calculation or decision making.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
@@ -4135,20 +4135,12 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>restriction</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006112 to reflect improved definition?</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr"/>
       <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>This involves what people should do as well as what they are not allowed to do.</t>
-        </is>
-      </c>
+      <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr"/>
       <c r="U50" s="2" t="inlineStr">
         <is>
@@ -4169,39 +4161,39 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:037032</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>restriction behaviour change intervention</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+          <t>Using formal social rules to set boundaries for a behaviour.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
@@ -4212,12 +4204,20 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>Amend in MoA?</t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>restriction</t>
+        </is>
+      </c>
       <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>This involves what people should do as well as what they are not allowed to do.</t>
+        </is>
+      </c>
       <c r="T51" s="2" t="inlineStr"/>
       <c r="U51" s="2" t="inlineStr">
         <is>
@@ -4238,39 +4238,39 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037033</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>spill-over effect intervention criterion</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr"/>
@@ -4281,20 +4281,12 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>side-effect, spill-over effect, unintended consequence</t>
-        </is>
-      </c>
+          <t>Amend in MoA?</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr"/>
       <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
-        </is>
-      </c>
+      <c r="S52" s="2" t="inlineStr"/>
       <c r="T52" s="2" t="inlineStr"/>
       <c r="U52" s="2" t="inlineStr">
         <is>
@@ -4313,142 +4305,219 @@
       <c r="AA52" s="2" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037033</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>spill-over effect intervention criterion</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>APEASE criterion</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>side-effect, spill-over effect, unintended consequence</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V53" s="2" t="inlineStr"/>
+      <c r="W53" s="2" t="inlineStr"/>
+      <c r="X53" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y53" s="2" t="inlineStr"/>
+      <c r="Z53" s="2" t="inlineStr"/>
+      <c r="AA53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Reasoning with words, symbols or images.</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>BCIO:0050000</t>
         </is>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>training behaviour change inervention</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention  that involves using demonstration, feedback or practice to improve physical or psychological skills.</t>
         </is>
       </c>
-      <c r="D54" s="2" t="inlineStr">
+      <c r="D55" s="2" t="inlineStr">
         <is>
           <t>Using demonstration, feedback, and practice to improve physical or psychological skills such as ability to analyse information and plan on the basis of that information.</t>
         </is>
       </c>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="H54" s="2" t="inlineStr">
+      <c r="H55" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I54" s="2" t="inlineStr">
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="inlineStr">
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q54" s="2" t="inlineStr">
+      <c r="Q55" s="2" t="inlineStr">
         <is>
           <t>training</t>
         </is>
       </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
-      <c r="T54" s="2" t="inlineStr"/>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V54" s="2" t="inlineStr"/>
-      <c r="W54" s="2" t="inlineStr"/>
-      <c r="X54" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y54" s="2" t="inlineStr"/>
-      <c r="Z54" s="2" t="inlineStr"/>
-      <c r="AA54" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr"/>
+      <c r="T55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V55" s="2" t="inlineStr"/>
+      <c r="W55" s="2" t="inlineStr"/>
+      <c r="X55" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y55" s="2" t="inlineStr"/>
+      <c r="Z55" s="2" t="inlineStr"/>
+      <c r="AA55" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA55"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,7 +2487,9 @@
       <c r="R27" s="2" t="inlineStr"/>
       <c r="S27" s="2" t="inlineStr"/>
       <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="V27" s="2" t="inlineStr"/>
       <c r="W27" s="2" t="inlineStr">
         <is>
@@ -3439,39 +3441,39 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037026</t>
+          <t>BCIO:0050002</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>persuasive behaviour change intervention</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
+          <t>A disposition that inheres in a person.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
+          <t>A disposition of a person.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
@@ -3480,26 +3482,18 @@
       <c r="M41" s="2" t="inlineStr"/>
       <c r="N41" s="2" t="inlineStr"/>
       <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>persuasion</t>
-        </is>
-      </c>
+      <c r="P41" s="2" t="inlineStr"/>
+      <c r="Q41" s="2" t="inlineStr"/>
       <c r="R41" s="2" t="inlineStr"/>
       <c r="S41" s="2" t="inlineStr"/>
       <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="U41" s="2" t="inlineStr"/>
       <c r="V41" s="2" t="inlineStr"/>
-      <c r="W41" s="2" t="inlineStr"/>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X41" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3512,39 +3506,39 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:037026</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>persuasive behaviour change intervention</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>A person's abilities arising from their physique and bodily functioning.</t>
+          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
@@ -3555,16 +3549,16 @@
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>persuasion</t>
+        </is>
+      </c>
       <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
-        </is>
-      </c>
+      <c r="S42" s="2" t="inlineStr"/>
       <c r="T42" s="2" t="inlineStr"/>
       <c r="U42" s="2" t="inlineStr">
         <is>
@@ -3585,29 +3579,29 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
+          <t>A person's abilities arising from their physique and bodily functioning.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3628,14 +3622,14 @@
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006089 in MoA?</t>
+          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr"/>
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr"/>
@@ -3658,39 +3652,39 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
+          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>The actions of groups of people or populations.</t>
+          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>population human activity</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
@@ -3701,12 +3695,16 @@
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
+          <t>Amend BCIO:006089 in MoA?</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr"/>
       <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr"/>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+        </is>
+      </c>
       <c r="T44" s="2" t="inlineStr"/>
       <c r="U44" s="2" t="inlineStr">
         <is>
@@ -3722,48 +3720,44 @@
       </c>
       <c r="Y44" s="2" t="inlineStr"/>
       <c r="Z44" s="2" t="inlineStr"/>
-      <c r="AA44" s="2" t="inlineStr">
-        <is>
-          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
-        </is>
-      </c>
+      <c r="AA44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037027</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>positive behavioural contingency</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A process in which a desirable event follows from a behaviour.</t>
+          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a reward</t>
+          <t>The actions of groups of people or populations.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
+          <t>population human activity</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
@@ -3774,7 +3768,7 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr"/>
@@ -3795,39 +3789,43 @@
       </c>
       <c r="Y45" s="2" t="inlineStr"/>
       <c r="Z45" s="2" t="inlineStr"/>
-      <c r="AA45" s="2" t="inlineStr"/>
+      <c r="AA45" s="2" t="inlineStr">
+        <is>
+          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037028</t>
+          <t>BCIO:037027</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>practicability intervention criterion</t>
+          <t>positive behavioural contingency</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
+          <t>A process in which a desirable event follows from a behaviour.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
+          <t>Linking a behaviour to a reward</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -3843,20 +3841,12 @@
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>practicability</t>
-        </is>
-      </c>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr"/>
       <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
-        </is>
-      </c>
+      <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr"/>
       <c r="U46" s="2" t="inlineStr">
         <is>
@@ -3877,39 +3867,39 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037029</t>
+          <t>BCIO:037028</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>psychological behavioural capability</t>
+          <t>practicability intervention criterion</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
+          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
@@ -3920,16 +3910,20 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF as distinct from mental capability?</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>psychological capability</t>
+          <t>practicability</t>
         </is>
       </c>
       <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
+        </is>
+      </c>
       <c r="T47" s="2" t="inlineStr"/>
       <c r="U47" s="2" t="inlineStr">
         <is>
@@ -3950,34 +3944,34 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037030</t>
+          <t>BCIO:037029</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>psychological behavioural capability</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
+          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>A process underpinning experience or generation of behaviour.</t>
+          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -3993,10 +3987,14 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr"/>
+          <t>Add to MoA and MF as distinct from mental capability?</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>psychological capability</t>
+        </is>
+      </c>
       <c r="R48" s="2" t="inlineStr"/>
       <c r="S48" s="2" t="inlineStr"/>
       <c r="T48" s="2" t="inlineStr"/>
@@ -4019,29 +4017,29 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037031</t>
+          <t>BCIO:037030</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>reflective motivation</t>
+          <t>psychological process</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves reflective thinking.</t>
+          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Psychological processes of conscious planning and decision making.</t>
+          <t>A process underpinning experience or generation of behaviour.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
@@ -4062,16 +4060,12 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA</t>
+          <t>Add to MoA and MF?</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr"/>
       <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
-        </is>
-      </c>
+      <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr"/>
       <c r="U49" s="2" t="inlineStr">
         <is>
@@ -4092,29 +4086,29 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:037031</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>reflective motivation</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
+          <t>A motivation that involves reflective thinking.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Conscious reasoning, estimation, calculation or decision making.</t>
+          <t>Psychological processes of conscious planning and decision making.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -4135,12 +4129,16 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006112 to reflect improved definition?</t>
+          <t>Add to MoA</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr"/>
       <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
+        </is>
+      </c>
       <c r="T50" s="2" t="inlineStr"/>
       <c r="U50" s="2" t="inlineStr">
         <is>
@@ -4161,29 +4159,29 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037032</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>restriction behaviour change intervention</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
+          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Using formal social rules to set boundaries for a behaviour.</t>
+          <t>Conscious reasoning, estimation, calculation or decision making.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -4193,7 +4191,7 @@
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
@@ -4204,20 +4202,12 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>restriction</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006112 to reflect improved definition?</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr"/>
       <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr">
-        <is>
-          <t>This involves what people should do as well as what they are not allowed to do.</t>
-        </is>
-      </c>
+      <c r="S51" s="2" t="inlineStr"/>
       <c r="T51" s="2" t="inlineStr"/>
       <c r="U51" s="2" t="inlineStr">
         <is>
@@ -4238,39 +4228,39 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:037032</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>restriction behaviour change intervention</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+          <t>Using formal social rules to set boundaries for a behaviour.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr"/>
@@ -4281,12 +4271,20 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>Amend in MoA?</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>restriction</t>
+        </is>
+      </c>
       <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>This involves what people should do as well as what they are not allowed to do.</t>
+        </is>
+      </c>
       <c r="T52" s="2" t="inlineStr"/>
       <c r="U52" s="2" t="inlineStr">
         <is>
@@ -4307,39 +4305,39 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037033</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>spill-over effect intervention criterion</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr"/>
@@ -4350,20 +4348,12 @@
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>side-effect, spill-over effect, unintended consequence</t>
-        </is>
-      </c>
+          <t>Amend in MoA?</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr"/>
       <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
-        </is>
-      </c>
+      <c r="S53" s="2" t="inlineStr"/>
       <c r="T53" s="2" t="inlineStr"/>
       <c r="U53" s="2" t="inlineStr">
         <is>
@@ -4382,142 +4372,219 @@
       <c r="AA53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037033</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>spill-over effect intervention criterion</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>APEASE criterion</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>side-effect, spill-over effect, unintended consequence</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V54" s="2" t="inlineStr"/>
+      <c r="W54" s="2" t="inlineStr"/>
+      <c r="X54" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y54" s="2" t="inlineStr"/>
+      <c r="Z54" s="2" t="inlineStr"/>
+      <c r="AA54" s="2" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Reasoning with words, symbols or images.</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>BCIO:0050000</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>training behaviour change inervention</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention  that involves using demonstration, feedback or practice to improve physical or psychological skills.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>Using demonstration, feedback, and practice to improve physical or psychological skills such as ability to analyse information and plan on the basis of that information.</t>
         </is>
       </c>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr">
+      <c r="H56" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I55" s="2" t="inlineStr">
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr">
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q55" s="2" t="inlineStr">
+      <c r="Q56" s="2" t="inlineStr">
         <is>
           <t>training</t>
         </is>
       </c>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
-      <c r="T55" s="2" t="inlineStr"/>
-      <c r="U55" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V55" s="2" t="inlineStr"/>
-      <c r="W55" s="2" t="inlineStr"/>
-      <c r="X55" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y55" s="2" t="inlineStr"/>
-      <c r="Z55" s="2" t="inlineStr"/>
-      <c r="AA55" s="2" t="inlineStr"/>
+      <c r="R56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr"/>
+      <c r="T56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V56" s="2" t="inlineStr"/>
+      <c r="W56" s="2" t="inlineStr"/>
+      <c r="X56" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y56" s="2" t="inlineStr"/>
+      <c r="Z56" s="2" t="inlineStr"/>
+      <c r="AA56" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1920,100 +1920,96 @@
       <c r="AA19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037014</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>brain process</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that involves the brain.</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>A process that occurs in the brain.</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MF:0000032</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A disposition that inheres in some extended organism.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A disposition of any kind of organism.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr"/>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="inlineStr"/>
-      <c r="W20" s="2" t="inlineStr"/>
-      <c r="X20" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y20" s="2" t="inlineStr"/>
-      <c r="Z20" s="2" t="inlineStr"/>
-      <c r="AA20" s="2" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037015</t>
+          <t>BCIO:037014</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>coercive behaviour change intervention</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>A bodily process that involves the brain.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Applying costs or punishments to a behaviour.</t>
+          <t>A process that occurs in the brain.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2023,7 +2019,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr"/>
@@ -2034,20 +2030,12 @@
       <c r="O21" s="2" t="inlineStr"/>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>coercion</t>
-        </is>
-      </c>
+          <t>Add to MoA and MF?</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr"/>
       <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
-        </is>
-      </c>
+      <c r="S21" s="2" t="inlineStr"/>
       <c r="T21" s="2" t="inlineStr"/>
       <c r="U21" s="2" t="inlineStr">
         <is>
@@ -2066,178 +2054,186 @@
       <c r="AA21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037015</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>coercive behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Applying costs or punishments to a behaviour.</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>coercion</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr"/>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr"/>
+      <c r="W22" s="2" t="inlineStr"/>
+      <c r="X22" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y22" s="2" t="inlineStr"/>
+      <c r="Z22" s="2" t="inlineStr"/>
+      <c r="AA22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000008 </t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Creation or manipulation of mental representations of information.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
         <is>
           <t>Question as to whether this is better as a psychological process since this class does not necessarily involve conscious experience</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037016</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>criterion</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>A standard that can be used to evaluate something.</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>Information content entity</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr"/>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr"/>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V23" s="2" t="inlineStr"/>
-      <c r="W23" s="2" t="inlineStr"/>
-      <c r="X23" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y23" s="2" t="inlineStr"/>
-      <c r="Z23" s="2" t="inlineStr"/>
-      <c r="AA23" s="2" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037017</t>
+          <t>BCIO:037016</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>educational behaviour change intervention</t>
+          <t>criterion</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
+          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
+          <t>A standard that can be used to evaluate something.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>Information content entity</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -2256,17 +2252,9 @@
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
+      <c r="Q24" s="2" t="inlineStr"/>
       <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>This class separates education from training even though in common discourse training is often included within education.</t>
-        </is>
-      </c>
+      <c r="S24" s="2" t="inlineStr"/>
       <c r="T24" s="2" t="inlineStr"/>
       <c r="U24" s="2" t="inlineStr">
         <is>
@@ -2287,34 +2275,34 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037018</t>
+          <t>BCIO:037017</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>effectiveness intervention criterion</t>
+          <t>educational behaviour change intervention</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
+          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
+          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -2335,13 +2323,13 @@
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>education</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr"/>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
+          <t>This class separates education from training even though in common discourse training is often included within education.</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr"/>
@@ -2364,34 +2352,34 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037019</t>
+          <t>BCIO:037018</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>enablement behaviour change inervention</t>
+          <t>effectiveness intervention criterion</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
+          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -2412,13 +2400,13 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>enablement</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr"/>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
+          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr"/>
@@ -2441,39 +2429,39 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050001</t>
+          <t>BCIO:037019</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>enablement behaviour change inervention</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A disposition inhering in an environmental system.</t>
+          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>A disposition of an environment.</t>
+          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Setting</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
@@ -2482,20 +2470,30 @@
       <c r="M27" s="2" t="inlineStr"/>
       <c r="N27" s="2" t="inlineStr"/>
       <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr"/>
-      <c r="Q27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>enablement</t>
+        </is>
+      </c>
       <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
+        </is>
+      </c>
       <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="n">
-        <v>0</v>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V27" s="2" t="inlineStr"/>
-      <c r="W27" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W27" s="2" t="inlineStr"/>
       <c r="X27" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2508,39 +2506,39 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037020</t>
+          <t>BCIO:0050001</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>environmental restructuring behaviour change intervention</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
+          <t>A disposition inhering in an environmental system.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
+          <t>A disposition of an environment.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
@@ -2549,22 +2547,10 @@
       <c r="M28" s="2" t="inlineStr"/>
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>environmental restructuring</t>
-        </is>
-      </c>
+      <c r="P28" s="2" t="inlineStr"/>
+      <c r="Q28" s="2" t="inlineStr"/>
       <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
-        </is>
-      </c>
+      <c r="S28" s="2" t="inlineStr"/>
       <c r="T28" s="2" t="inlineStr"/>
       <c r="U28" s="2" t="inlineStr">
         <is>
@@ -2572,7 +2558,11 @@
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr"/>
-      <c r="W28" s="2" t="inlineStr"/>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X28" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2585,34 +2575,34 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037021</t>
+          <t>BCIO:037020</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>equity intervention criterion</t>
+          <t>environmental restructuring behaviour change intervention</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
+          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2633,13 +2623,13 @@
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>environmental restructuring</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr"/>
@@ -2662,43 +2652,39 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:037021</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>equity intervention criterion</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Human activity that is individual human behaviour or population behaviour</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>The actions of people, either as individuals or groups or populations.</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>'individual human behaviour' or 'population behaviour'</t>
-        </is>
-      </c>
+          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>human activity</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
@@ -2709,16 +2695,20 @@
       <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+        </is>
+      </c>
       <c r="T30" s="2" t="inlineStr"/>
       <c r="U30" s="2" t="inlineStr">
         <is>
@@ -2739,29 +2729,33 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037022</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>incentivisation  behaviour change intervention</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>Human activity that is individual human behaviour or population behaviour</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Applying rewards to a behaviour.</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
+          <t>The actions of people, either as individuals or groups or populations.</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>'individual human behaviour' or 'population behaviour'</t>
+        </is>
+      </c>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>human activity</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2771,7 +2765,7 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
@@ -2782,20 +2776,16 @@
       <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
+          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>incentivisation</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
-        </is>
-      </c>
+      <c r="S31" s="2" t="inlineStr"/>
       <c r="T31" s="2" t="inlineStr"/>
       <c r="U31" s="2" t="inlineStr">
         <is>
@@ -2816,29 +2806,29 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:037022</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>incentivisation  behaviour change intervention</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>The actions of individual people.</t>
+          <t>Applying rewards to a behaviour.</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2848,7 +2838,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
@@ -2857,14 +2847,22 @@
       <c r="M32" s="2" t="inlineStr"/>
       <c r="N32" s="2" t="inlineStr"/>
       <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>incentivisation</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
+        </is>
+      </c>
       <c r="T32" s="2" t="inlineStr"/>
       <c r="U32" s="2" t="inlineStr">
         <is>
@@ -2885,29 +2883,29 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Something done to influence an outcome.</t>
+          <t>The actions of individual people.</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2917,7 +2915,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
@@ -2927,7 +2925,11 @@
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
-      <c r="Q33" s="2" t="inlineStr"/>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
       <c r="R33" s="2" t="inlineStr"/>
       <c r="S33" s="2" t="inlineStr"/>
       <c r="T33" s="2" t="inlineStr"/>
@@ -2950,39 +2952,39 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Something done to influence an outcome.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
@@ -2992,11 +2994,7 @@
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
+      <c r="Q34" s="2" t="inlineStr"/>
       <c r="R34" s="2" t="inlineStr"/>
       <c r="S34" s="2" t="inlineStr"/>
       <c r="T34" s="2" t="inlineStr"/>
@@ -3019,39 +3017,39 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037023</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>intervention stakeholder</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Any person or organisation with a legitimate interest in an intervention</t>
+          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
@@ -3060,14 +3058,10 @@
       <c r="M35" s="2" t="inlineStr"/>
       <c r="N35" s="2" t="inlineStr"/>
       <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="P35" s="2" t="inlineStr"/>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr"/>
@@ -3090,177 +3084,173 @@
       <c r="AA35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037023</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>intervention stakeholder</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Any person or organisation with a legitimate interest in an intervention</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>social role</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr"/>
+      <c r="T36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr"/>
+      <c r="W36" s="2" t="inlineStr"/>
+      <c r="X36" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y36" s="2" t="inlineStr"/>
+      <c r="Z36" s="2" t="inlineStr"/>
+      <c r="AA36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>A bodily process that is of a type such that it can of itself be conscious.</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>A brain process that involves conscious exerience.</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
         <is>
           <t>MF:0000020 MF definition should be tidied up to confirm to recommended structure and perhaps parent is better as brain process?</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr">
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037024</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>modelling behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>Providing an example for people to imitate, learn from or aspire to.</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>modelling</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V37" s="2" t="inlineStr"/>
-      <c r="W37" s="2" t="inlineStr"/>
-      <c r="X37" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y37" s="2" t="inlineStr"/>
-      <c r="Z37" s="2" t="inlineStr"/>
-      <c r="AA37" s="2" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:037024</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>modelling behaviour change intervention</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour.</t>
+          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
+          <t>Providing an example for people to imitate, learn from or aspire to.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -3270,7 +3260,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
@@ -3281,12 +3271,20 @@
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006133 in MoA to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>modelling</t>
+        </is>
+      </c>
       <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
+        </is>
+      </c>
       <c r="T38" s="2" t="inlineStr"/>
       <c r="U38" s="2" t="inlineStr">
         <is>
@@ -3307,39 +3305,39 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037025</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>negative behavioural contingency</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A process in which an undesirable event results from a behaviour.</t>
+          <t>A psychological process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a punishment or cost.</t>
+          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
+          <t>psychological process</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
@@ -3350,7 +3348,7 @@
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:006133 in MoA to correct the definition</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr"/>
@@ -3376,29 +3374,29 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:037025</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>negative behavioural contingency</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A process in which an undesirable event results from a behaviour.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Linking a behaviour to a punishment or cost.</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -3408,7 +3406,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
@@ -3417,7 +3415,11 @@
       <c r="M40" s="2" t="inlineStr"/>
       <c r="N40" s="2" t="inlineStr"/>
       <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
       <c r="Q40" s="2" t="inlineStr"/>
       <c r="R40" s="2" t="inlineStr"/>
       <c r="S40" s="2" t="inlineStr"/>
@@ -3441,39 +3443,39 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050002</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>personal disposition</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A disposition that inheres in a person.</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>A disposition of a person.</t>
+          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
@@ -3487,13 +3489,13 @@
       <c r="R41" s="2" t="inlineStr"/>
       <c r="S41" s="2" t="inlineStr"/>
       <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V41" s="2" t="inlineStr"/>
-      <c r="W41" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W41" s="2" t="inlineStr"/>
       <c r="X41" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3506,39 +3508,39 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037026</t>
+          <t>BCIO:0050002</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>persuasive behaviour change intervention</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
+          <t>A disposition that inheres in a person.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
+          <t>A disposition of a person.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
@@ -3547,26 +3549,20 @@
       <c r="M42" s="2" t="inlineStr"/>
       <c r="N42" s="2" t="inlineStr"/>
       <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>persuasion</t>
-        </is>
-      </c>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="inlineStr"/>
       <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr"/>
       <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="U42" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V42" s="2" t="inlineStr"/>
-      <c r="W42" s="2" t="inlineStr"/>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X42" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3579,39 +3575,39 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:037026</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>persuasive behaviour change intervention</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A person's abilities arising from their physique and bodily functioning.</t>
+          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
@@ -3622,16 +3618,16 @@
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q43" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>persuasion</t>
+        </is>
+      </c>
       <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr">
-        <is>
-          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
-        </is>
-      </c>
+      <c r="S43" s="2" t="inlineStr"/>
       <c r="T43" s="2" t="inlineStr"/>
       <c r="U43" s="2" t="inlineStr">
         <is>
@@ -3652,29 +3648,29 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
+          <t>A person's abilities arising from their physique and bodily functioning.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -3695,14 +3691,14 @@
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006089 in MoA?</t>
+          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr"/>
       <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr"/>
@@ -3725,39 +3721,39 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
+          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>The actions of groups of people or populations.</t>
+          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>population human activity</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
@@ -3768,12 +3764,16 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
+          <t>Amend BCIO:006089 in MoA?</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr"/>
       <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+        </is>
+      </c>
       <c r="T45" s="2" t="inlineStr"/>
       <c r="U45" s="2" t="inlineStr">
         <is>
@@ -3789,48 +3789,44 @@
       </c>
       <c r="Y45" s="2" t="inlineStr"/>
       <c r="Z45" s="2" t="inlineStr"/>
-      <c r="AA45" s="2" t="inlineStr">
-        <is>
-          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
-        </is>
-      </c>
+      <c r="AA45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037027</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>positive behavioural contingency</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>A process in which a desirable event follows from a behaviour.</t>
+          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a reward</t>
+          <t>The actions of groups of people or populations.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
+          <t>population human activity</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
@@ -3841,7 +3837,7 @@
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr"/>
@@ -3862,39 +3858,43 @@
       </c>
       <c r="Y46" s="2" t="inlineStr"/>
       <c r="Z46" s="2" t="inlineStr"/>
-      <c r="AA46" s="2" t="inlineStr"/>
+      <c r="AA46" s="2" t="inlineStr">
+        <is>
+          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037028</t>
+          <t>BCIO:037027</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>practicability intervention criterion</t>
+          <t>positive behavioural contingency</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
+          <t>A process in which a desirable event follows from a behaviour.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
+          <t>Linking a behaviour to a reward</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -3910,20 +3910,12 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>practicability</t>
-        </is>
-      </c>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr"/>
       <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
-        </is>
-      </c>
+      <c r="S47" s="2" t="inlineStr"/>
       <c r="T47" s="2" t="inlineStr"/>
       <c r="U47" s="2" t="inlineStr">
         <is>
@@ -3944,39 +3936,39 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037029</t>
+          <t>BCIO:037028</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>psychological behavioural capability</t>
+          <t>practicability intervention criterion</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
+          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr"/>
@@ -3987,16 +3979,20 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF as distinct from mental capability?</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
         <is>
-          <t>psychological capability</t>
+          <t>practicability</t>
         </is>
       </c>
       <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
+        </is>
+      </c>
       <c r="T48" s="2" t="inlineStr"/>
       <c r="U48" s="2" t="inlineStr">
         <is>
@@ -4017,34 +4013,34 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037030</t>
+          <t>BCIO:037029</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>psychological behavioural capability</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
+          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>A process underpinning experience or generation of behaviour.</t>
+          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -4060,10 +4056,14 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr"/>
+          <t>Add to MoA and MF as distinct from mental capability?</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>psychological capability</t>
+        </is>
+      </c>
       <c r="R49" s="2" t="inlineStr"/>
       <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr"/>
@@ -4086,29 +4086,29 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037031</t>
+          <t>BCIO:037030</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>reflective motivation</t>
+          <t>psychological process</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves reflective thinking.</t>
+          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>Psychological processes of conscious planning and decision making.</t>
+          <t>A process underpinning experience or generation of behaviour.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -4129,16 +4129,12 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA</t>
+          <t>Add to MoA and MF?</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr"/>
       <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
-        </is>
-      </c>
+      <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr"/>
       <c r="U50" s="2" t="inlineStr">
         <is>
@@ -4159,29 +4155,29 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:037031</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>reflective motivation</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
+          <t>A motivation that involves reflective thinking.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Conscious reasoning, estimation, calculation or decision making.</t>
+          <t>Psychological processes of conscious planning and decision making.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -4202,12 +4198,16 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006112 to reflect improved definition?</t>
+          <t>Add to MoA</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr"/>
       <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
+        </is>
+      </c>
       <c r="T51" s="2" t="inlineStr"/>
       <c r="U51" s="2" t="inlineStr">
         <is>
@@ -4228,29 +4228,29 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037032</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>restriction behaviour change intervention</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
+          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Using formal social rules to set boundaries for a behaviour.</t>
+          <t>Conscious reasoning, estimation, calculation or decision making.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="I52" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J52" s="2" t="inlineStr"/>
@@ -4271,20 +4271,12 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>restriction</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006112 to reflect improved definition?</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr"/>
       <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>This involves what people should do as well as what they are not allowed to do.</t>
-        </is>
-      </c>
+      <c r="S52" s="2" t="inlineStr"/>
       <c r="T52" s="2" t="inlineStr"/>
       <c r="U52" s="2" t="inlineStr">
         <is>
@@ -4305,39 +4297,39 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:037032</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>restriction behaviour change intervention</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+          <t>Using formal social rules to set boundaries for a behaviour.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr"/>
@@ -4348,12 +4340,20 @@
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>Amend in MoA?</t>
-        </is>
-      </c>
-      <c r="Q53" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>restriction</t>
+        </is>
+      </c>
       <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>This involves what people should do as well as what they are not allowed to do.</t>
+        </is>
+      </c>
       <c r="T53" s="2" t="inlineStr"/>
       <c r="U53" s="2" t="inlineStr">
         <is>
@@ -4374,39 +4374,39 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037033</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>spill-over effect intervention criterion</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr"/>
@@ -4417,20 +4417,12 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>side-effect, spill-over effect, unintended consequence</t>
-        </is>
-      </c>
+          <t>Amend in MoA?</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr"/>
       <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
-        </is>
-      </c>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr"/>
       <c r="U54" s="2" t="inlineStr">
         <is>
@@ -4449,142 +4441,219 @@
       <c r="AA54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037033</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>spill-over effect intervention criterion</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>APEASE criterion</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>side-effect, spill-over effect, unintended consequence</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V55" s="2" t="inlineStr"/>
+      <c r="W55" s="2" t="inlineStr"/>
+      <c r="X55" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y55" s="2" t="inlineStr"/>
+      <c r="Z55" s="2" t="inlineStr"/>
+      <c r="AA55" s="2" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Reasoning with words, symbols or images.</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
         <is>
           <t>BCIO:0050000</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>training behaviour change inervention</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention  that involves using demonstration, feedback or practice to improve physical or psychological skills.</t>
         </is>
       </c>
-      <c r="D56" s="2" t="inlineStr">
+      <c r="D57" s="2" t="inlineStr">
         <is>
           <t>Using demonstration, feedback, and practice to improve physical or psychological skills such as ability to analyse information and plan on the basis of that information.</t>
         </is>
       </c>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="H56" s="2" t="inlineStr">
+      <c r="H57" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I56" s="2" t="inlineStr">
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
-      <c r="P56" s="2" t="inlineStr">
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="inlineStr">
+      <c r="Q57" s="2" t="inlineStr">
         <is>
           <t>training</t>
         </is>
       </c>
-      <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr"/>
-      <c r="T56" s="2" t="inlineStr"/>
-      <c r="U56" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V56" s="2" t="inlineStr"/>
-      <c r="W56" s="2" t="inlineStr"/>
-      <c r="X56" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y56" s="2" t="inlineStr"/>
-      <c r="Z56" s="2" t="inlineStr"/>
-      <c r="AA56" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr"/>
+      <c r="T57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V57" s="2" t="inlineStr"/>
+      <c r="W57" s="2" t="inlineStr"/>
+      <c r="X57" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y57" s="2" t="inlineStr"/>
+      <c r="Z57" s="2" t="inlineStr"/>
+      <c r="AA57" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1987,29 +1987,29 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037014</t>
+          <t>BCIO:0050003</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that involves the brain.</t>
+          <t>A process in which at least one bodily component of an organsim participates.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>A process that occurs in the brain.</t>
+          <t>A process occurring in an organism.</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2028,22 +2028,18 @@
       <c r="M21" s="2" t="inlineStr"/>
       <c r="N21" s="2" t="inlineStr"/>
       <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
+      <c r="P21" s="2" t="inlineStr"/>
       <c r="Q21" s="2" t="inlineStr"/>
       <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr"/>
       <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="U21" s="2" t="inlineStr"/>
       <c r="V21" s="2" t="inlineStr"/>
-      <c r="W21" s="2" t="inlineStr"/>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X21" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2056,29 +2052,29 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037015</t>
+          <t>BCIO:037014</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>coercive behaviour change intervention</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>A bodily process that involves the brain.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Applying costs or punishments to a behaviour.</t>
+          <t>A process that occurs in the brain.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2088,7 +2084,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr"/>
@@ -2099,20 +2095,12 @@
       <c r="O22" s="2" t="inlineStr"/>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>coercion</t>
-        </is>
-      </c>
+          <t>Add to MoA and MF?</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr"/>
       <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
-        </is>
-      </c>
+      <c r="S22" s="2" t="inlineStr"/>
       <c r="T22" s="2" t="inlineStr"/>
       <c r="U22" s="2" t="inlineStr">
         <is>
@@ -2131,178 +2119,186 @@
       <c r="AA22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037015</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>coercive behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Applying costs or punishments to a behaviour.</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>coercion</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr"/>
+      <c r="W23" s="2" t="inlineStr"/>
+      <c r="X23" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y23" s="2" t="inlineStr"/>
+      <c r="Z23" s="2" t="inlineStr"/>
+      <c r="AA23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000008 </t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Creation or manipulation of mental representations of information.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
         <is>
           <t>Question as to whether this is better as a psychological process since this class does not necessarily involve conscious experience</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037016</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>criterion</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>A standard that can be used to evaluate something.</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Information content entity</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr"/>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr"/>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V24" s="2" t="inlineStr"/>
-      <c r="W24" s="2" t="inlineStr"/>
-      <c r="X24" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y24" s="2" t="inlineStr"/>
-      <c r="Z24" s="2" t="inlineStr"/>
-      <c r="AA24" s="2" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037017</t>
+          <t>BCIO:037016</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>educational behaviour change intervention</t>
+          <t>criterion</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
+          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
+          <t>A standard that can be used to evaluate something.</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>Information content entity</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -2321,17 +2317,9 @@
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
+      <c r="Q25" s="2" t="inlineStr"/>
       <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>This class separates education from training even though in common discourse training is often included within education.</t>
-        </is>
-      </c>
+      <c r="S25" s="2" t="inlineStr"/>
       <c r="T25" s="2" t="inlineStr"/>
       <c r="U25" s="2" t="inlineStr">
         <is>
@@ -2352,34 +2340,34 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037018</t>
+          <t>BCIO:037017</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>effectiveness intervention criterion</t>
+          <t>educational behaviour change intervention</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
+          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
+          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -2400,13 +2388,13 @@
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>education</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr"/>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
+          <t>This class separates education from training even though in common discourse training is often included within education.</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr"/>
@@ -2429,34 +2417,34 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037019</t>
+          <t>BCIO:037018</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>enablement behaviour change inervention</t>
+          <t>effectiveness intervention criterion</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
+          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -2477,13 +2465,13 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>enablement</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
+          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr"/>
@@ -2506,39 +2494,39 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050001</t>
+          <t>BCIO:037019</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>enablement behaviour change inervention</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A disposition inhering in an environmental system.</t>
+          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>A disposition of an environment.</t>
+          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>Setting</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr"/>
@@ -2547,10 +2535,22 @@
       <c r="M28" s="2" t="inlineStr"/>
       <c r="N28" s="2" t="inlineStr"/>
       <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr"/>
-      <c r="Q28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>enablement</t>
+        </is>
+      </c>
       <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
+        </is>
+      </c>
       <c r="T28" s="2" t="inlineStr"/>
       <c r="U28" s="2" t="inlineStr">
         <is>
@@ -2558,11 +2558,7 @@
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr"/>
-      <c r="W28" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W28" s="2" t="inlineStr"/>
       <c r="X28" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2575,39 +2571,39 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037020</t>
+          <t>BCIO:0050001</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>environmental restructuring behaviour change intervention</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
+          <t>A disposition inhering in an environmental system.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
+          <t>A disposition of an environment.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
@@ -2616,22 +2612,10 @@
       <c r="M29" s="2" t="inlineStr"/>
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>environmental restructuring</t>
-        </is>
-      </c>
+      <c r="P29" s="2" t="inlineStr"/>
+      <c r="Q29" s="2" t="inlineStr"/>
       <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
-        </is>
-      </c>
+      <c r="S29" s="2" t="inlineStr"/>
       <c r="T29" s="2" t="inlineStr"/>
       <c r="U29" s="2" t="inlineStr">
         <is>
@@ -2639,7 +2623,11 @@
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr"/>
-      <c r="W29" s="2" t="inlineStr"/>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X29" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2652,34 +2640,34 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037021</t>
+          <t>BCIO:037020</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>equity intervention criterion</t>
+          <t>environmental restructuring behaviour change intervention</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
+          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2700,13 +2688,13 @@
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>environmental restructuring</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr"/>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr"/>
@@ -2729,43 +2717,39 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:037021</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>equity intervention criterion</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Human activity that is individual human behaviour or population behaviour</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>The actions of people, either as individuals or groups or populations.</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>'individual human behaviour' or 'population behaviour'</t>
-        </is>
-      </c>
+          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>human activity</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
@@ -2776,16 +2760,20 @@
       <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+        </is>
+      </c>
       <c r="T31" s="2" t="inlineStr"/>
       <c r="U31" s="2" t="inlineStr">
         <is>
@@ -2806,29 +2794,33 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037022</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>incentivisation  behaviour change intervention</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>Human activity that is individual human behaviour or population behaviour</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>Applying rewards to a behaviour.</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
+          <t>The actions of people, either as individuals or groups or populations.</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>'individual human behaviour' or 'population behaviour'</t>
+        </is>
+      </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>human activity</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2838,7 +2830,7 @@
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
@@ -2849,20 +2841,16 @@
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
+          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>incentivisation</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
-        </is>
-      </c>
+      <c r="S32" s="2" t="inlineStr"/>
       <c r="T32" s="2" t="inlineStr"/>
       <c r="U32" s="2" t="inlineStr">
         <is>
@@ -2883,29 +2871,29 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:037022</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>incentivisation  behaviour change intervention</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>The actions of individual people.</t>
+          <t>Applying rewards to a behaviour.</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2915,7 +2903,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
@@ -2924,14 +2912,22 @@
       <c r="M33" s="2" t="inlineStr"/>
       <c r="N33" s="2" t="inlineStr"/>
       <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>incentivisation</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
+        </is>
+      </c>
       <c r="T33" s="2" t="inlineStr"/>
       <c r="U33" s="2" t="inlineStr">
         <is>
@@ -2952,29 +2948,29 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Something done to influence an outcome.</t>
+          <t>The actions of individual people.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2984,7 +2980,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
@@ -2994,7 +2990,11 @@
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
       <c r="R34" s="2" t="inlineStr"/>
       <c r="S34" s="2" t="inlineStr"/>
       <c r="T34" s="2" t="inlineStr"/>
@@ -3017,39 +3017,39 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Something done to influence an outcome.</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H35" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
@@ -3059,11 +3059,7 @@
       <c r="N35" s="2" t="inlineStr"/>
       <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
+      <c r="Q35" s="2" t="inlineStr"/>
       <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr"/>
       <c r="T35" s="2" t="inlineStr"/>
@@ -3086,39 +3082,39 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037023</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>intervention stakeholder</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Any person or organisation with a legitimate interest in an intervention</t>
+          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
@@ -3127,14 +3123,10 @@
       <c r="M36" s="2" t="inlineStr"/>
       <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="P36" s="2" t="inlineStr"/>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr"/>
@@ -3157,177 +3149,173 @@
       <c r="AA36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037023</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>intervention stakeholder</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Any person or organisation with a legitimate interest in an intervention</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>social role</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr"/>
+      <c r="T37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr"/>
+      <c r="W37" s="2" t="inlineStr"/>
+      <c r="X37" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y37" s="2" t="inlineStr"/>
+      <c r="Z37" s="2" t="inlineStr"/>
+      <c r="AA37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>A bodily process that is of a type such that it can of itself be conscious.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>A brain process that involves conscious exerience.</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
         <is>
           <t>MF:0000020 MF definition should be tidied up to confirm to recommended structure and perhaps parent is better as brain process?</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr">
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037024</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>modelling behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>Providing an example for people to imitate, learn from or aspire to.</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>modelling</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V38" s="2" t="inlineStr"/>
-      <c r="W38" s="2" t="inlineStr"/>
-      <c r="X38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y38" s="2" t="inlineStr"/>
-      <c r="Z38" s="2" t="inlineStr"/>
-      <c r="AA38" s="2" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:037024</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>modelling behaviour change intervention</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour.</t>
+          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
+          <t>Providing an example for people to imitate, learn from or aspire to.</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -3337,7 +3325,7 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
@@ -3348,12 +3336,20 @@
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006133 in MoA to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>modelling</t>
+        </is>
+      </c>
       <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
+        </is>
+      </c>
       <c r="T39" s="2" t="inlineStr"/>
       <c r="U39" s="2" t="inlineStr">
         <is>
@@ -3374,39 +3370,39 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037025</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>negative behavioural contingency</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>A process in which an undesirable event results from a behaviour.</t>
+          <t>A psychological process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a punishment or cost.</t>
+          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
+          <t>psychological process</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
@@ -3417,7 +3413,7 @@
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:006133 in MoA to correct the definition</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr"/>
@@ -3443,29 +3439,29 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:037025</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>negative behavioural contingency</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A process in which an undesirable event results from a behaviour.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Linking a behaviour to a punishment or cost.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3475,7 +3471,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
@@ -3484,7 +3480,11 @@
       <c r="M41" s="2" t="inlineStr"/>
       <c r="N41" s="2" t="inlineStr"/>
       <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
       <c r="Q41" s="2" t="inlineStr"/>
       <c r="R41" s="2" t="inlineStr"/>
       <c r="S41" s="2" t="inlineStr"/>
@@ -3508,39 +3508,39 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050002</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>personal disposition</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>A disposition that inheres in a person.</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>A disposition of a person.</t>
+          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
@@ -3554,15 +3554,13 @@
       <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr"/>
       <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="n">
-        <v>0</v>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V42" s="2" t="inlineStr"/>
-      <c r="W42" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W42" s="2" t="inlineStr"/>
       <c r="X42" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3575,39 +3573,39 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037026</t>
+          <t>BCIO:0050002</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>persuasive behaviour change intervention</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
+          <t>A disposition that inheres in a person.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
+          <t>A disposition of a person.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
@@ -3616,26 +3614,20 @@
       <c r="M43" s="2" t="inlineStr"/>
       <c r="N43" s="2" t="inlineStr"/>
       <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>persuasion</t>
-        </is>
-      </c>
+      <c r="P43" s="2" t="inlineStr"/>
+      <c r="Q43" s="2" t="inlineStr"/>
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr"/>
       <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="U43" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr"/>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X43" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3648,39 +3640,39 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:037026</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>persuasive behaviour change intervention</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>A person's abilities arising from their physique and bodily functioning.</t>
+          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
@@ -3691,16 +3683,16 @@
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>persuasion</t>
+        </is>
+      </c>
       <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
-        </is>
-      </c>
+      <c r="S44" s="2" t="inlineStr"/>
       <c r="T44" s="2" t="inlineStr"/>
       <c r="U44" s="2" t="inlineStr">
         <is>
@@ -3721,29 +3713,29 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
+          <t>A person's abilities arising from their physique and bodily functioning.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -3764,14 +3756,14 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006089 in MoA?</t>
+          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr"/>
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
-          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
         </is>
       </c>
       <c r="T45" s="2" t="inlineStr"/>
@@ -3794,39 +3786,39 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
+          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>The actions of groups of people or populations.</t>
+          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>population human activity</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
@@ -3837,12 +3829,16 @@
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
+          <t>Amend BCIO:006089 in MoA?</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr"/>
       <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+        </is>
+      </c>
       <c r="T46" s="2" t="inlineStr"/>
       <c r="U46" s="2" t="inlineStr">
         <is>
@@ -3858,48 +3854,44 @@
       </c>
       <c r="Y46" s="2" t="inlineStr"/>
       <c r="Z46" s="2" t="inlineStr"/>
-      <c r="AA46" s="2" t="inlineStr">
-        <is>
-          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
-        </is>
-      </c>
+      <c r="AA46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037027</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>positive behavioural contingency</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A process in which a desirable event follows from a behaviour.</t>
+          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a reward</t>
+          <t>The actions of groups of people or populations.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
+          <t>population human activity</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
@@ -3910,7 +3902,7 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr"/>
@@ -3931,39 +3923,43 @@
       </c>
       <c r="Y47" s="2" t="inlineStr"/>
       <c r="Z47" s="2" t="inlineStr"/>
-      <c r="AA47" s="2" t="inlineStr"/>
+      <c r="AA47" s="2" t="inlineStr">
+        <is>
+          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037028</t>
+          <t>BCIO:037027</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>practicability intervention criterion</t>
+          <t>positive behavioural contingency</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
+          <t>A process in which a desirable event follows from a behaviour.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
+          <t>Linking a behaviour to a reward</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -3979,20 +3975,12 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>practicability</t>
-        </is>
-      </c>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr"/>
       <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
-        </is>
-      </c>
+      <c r="S48" s="2" t="inlineStr"/>
       <c r="T48" s="2" t="inlineStr"/>
       <c r="U48" s="2" t="inlineStr">
         <is>
@@ -4013,39 +4001,39 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037029</t>
+          <t>BCIO:037028</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>psychological behavioural capability</t>
+          <t>practicability intervention criterion</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
+          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
@@ -4056,16 +4044,20 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF as distinct from mental capability?</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
         <is>
-          <t>psychological capability</t>
+          <t>practicability</t>
         </is>
       </c>
       <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
+        </is>
+      </c>
       <c r="T49" s="2" t="inlineStr"/>
       <c r="U49" s="2" t="inlineStr">
         <is>
@@ -4086,34 +4078,34 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037030</t>
+          <t>BCIO:037029</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>psychological behavioural capability</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
+          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>A process underpinning experience or generation of behaviour.</t>
+          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -4129,10 +4121,14 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr"/>
+          <t>Add to MoA and MF as distinct from mental capability?</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>psychological capability</t>
+        </is>
+      </c>
       <c r="R50" s="2" t="inlineStr"/>
       <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr"/>
@@ -4155,29 +4151,29 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037031</t>
+          <t>BCIO:037030</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>reflective motivation</t>
+          <t>psychological process</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves reflective thinking.</t>
+          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>Psychological processes of conscious planning and decision making.</t>
+          <t>A process underpinning experience or generation of behaviour.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -4198,16 +4194,12 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA</t>
+          <t>Add to MoA and MF?</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr"/>
       <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr">
-        <is>
-          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
-        </is>
-      </c>
+      <c r="S51" s="2" t="inlineStr"/>
       <c r="T51" s="2" t="inlineStr"/>
       <c r="U51" s="2" t="inlineStr">
         <is>
@@ -4228,29 +4220,29 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:037031</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>reflective motivation</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
+          <t>A motivation that involves reflective thinking.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Conscious reasoning, estimation, calculation or decision making.</t>
+          <t>Psychological processes of conscious planning and decision making.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -4271,12 +4263,16 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006112 to reflect improved definition?</t>
+          <t>Add to MoA</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr"/>
       <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
+        </is>
+      </c>
       <c r="T52" s="2" t="inlineStr"/>
       <c r="U52" s="2" t="inlineStr">
         <is>
@@ -4297,29 +4293,29 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037032</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>restriction behaviour change intervention</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
+          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Using formal social rules to set boundaries for a behaviour.</t>
+          <t>Conscious reasoning, estimation, calculation or decision making.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -4329,7 +4325,7 @@
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J53" s="2" t="inlineStr"/>
@@ -4340,20 +4336,12 @@
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>restriction</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006112 to reflect improved definition?</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr"/>
       <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t>This involves what people should do as well as what they are not allowed to do.</t>
-        </is>
-      </c>
+      <c r="S53" s="2" t="inlineStr"/>
       <c r="T53" s="2" t="inlineStr"/>
       <c r="U53" s="2" t="inlineStr">
         <is>
@@ -4374,39 +4362,39 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:037032</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>restriction behaviour change intervention</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+          <t>Using formal social rules to set boundaries for a behaviour.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr"/>
@@ -4417,12 +4405,20 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>Amend in MoA?</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>restriction</t>
+        </is>
+      </c>
       <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>This involves what people should do as well as what they are not allowed to do.</t>
+        </is>
+      </c>
       <c r="T54" s="2" t="inlineStr"/>
       <c r="U54" s="2" t="inlineStr">
         <is>
@@ -4443,39 +4439,39 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037033</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>spill-over effect intervention criterion</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr"/>
@@ -4486,20 +4482,12 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>side-effect, spill-over effect, unintended consequence</t>
-        </is>
-      </c>
+          <t>Amend in MoA?</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr"/>
       <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
-        </is>
-      </c>
+      <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr"/>
       <c r="U55" s="2" t="inlineStr">
         <is>
@@ -4518,142 +4506,219 @@
       <c r="AA55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037033</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>spill-over effect intervention criterion</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>APEASE criterion</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr"/>
+      <c r="L56" s="2" t="inlineStr"/>
+      <c r="M56" s="2" t="inlineStr"/>
+      <c r="N56" s="2" t="inlineStr"/>
+      <c r="O56" s="2" t="inlineStr"/>
+      <c r="P56" s="2" t="inlineStr">
+        <is>
+          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>side-effect, spill-over effect, unintended consequence</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V56" s="2" t="inlineStr"/>
+      <c r="W56" s="2" t="inlineStr"/>
+      <c r="X56" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y56" s="2" t="inlineStr"/>
+      <c r="Z56" s="2" t="inlineStr"/>
+      <c r="AA56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>Reasoning with words, symbols or images.</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr">
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>BCIO:0050000</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>training behaviour change inervention</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention  that involves using demonstration, feedback or practice to improve physical or psychological skills.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D58" s="2" t="inlineStr">
         <is>
           <t>Using demonstration, feedback, and practice to improve physical or psychological skills such as ability to analyse information and plan on the basis of that information.</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="H57" s="2" t="inlineStr">
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I57" s="2" t="inlineStr">
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="inlineStr">
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q57" s="2" t="inlineStr">
+      <c r="Q58" s="2" t="inlineStr">
         <is>
           <t>training</t>
         </is>
       </c>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr"/>
-      <c r="T57" s="2" t="inlineStr"/>
-      <c r="U57" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V57" s="2" t="inlineStr"/>
-      <c r="W57" s="2" t="inlineStr"/>
-      <c r="X57" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y57" s="2" t="inlineStr"/>
-      <c r="Z57" s="2" t="inlineStr"/>
-      <c r="AA57" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr"/>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V58" s="2" t="inlineStr"/>
+      <c r="W58" s="2" t="inlineStr"/>
+      <c r="X58" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y58" s="2" t="inlineStr"/>
+      <c r="Z58" s="2" t="inlineStr"/>
+      <c r="AA58" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA58"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,39 +645,39 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037002</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>acceptability intervention criterion</t>
+          <t>Individual human activity</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is liked or engaged with by stakeholders.</t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or some part of it is or or is likely to be liked or engaged with.</t>
+          <t>Something that someone does, whether it be mental or physical.</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
@@ -686,28 +686,12 @@
       <c r="M3" s="2" t="inlineStr"/>
       <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="inlineStr">
-        <is>
-          <t>acceptability</t>
-        </is>
-      </c>
+      <c r="P3" s="2" t="inlineStr"/>
+      <c r="Q3" s="2" t="inlineStr"/>
       <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr">
-        <is>
-          <t>This  potentially includes several related dimensions covering attitudes and behaviours.</t>
-        </is>
-      </c>
+      <c r="S3" s="2" t="inlineStr"/>
       <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="U3" s="2" t="inlineStr"/>
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
         <is>
@@ -726,22 +710,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037003</t>
+          <t>BCIO:037002</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>affordability intervention criterion</t>
+          <t>acceptability intervention criterion</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved within an available budget.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is liked or engaged with by stakeholders.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention can or is likely to be implemented within an available budget.</t>
+          <t>How far an intervention or some part of it is or or is likely to be liked or engaged with.</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -774,13 +758,13 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>affordability</t>
+          <t>acceptability</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>This is not the same as cost-effectiveness. An interventio  can be highly cost-effective and still not be considered affordable if there is no budget for it.</t>
+          <t>This  potentially includes several related dimensions covering attitudes and behaviours.</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr"/>
@@ -790,7 +774,11 @@
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr"/>
-      <c r="W4" s="2" t="inlineStr"/>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X4" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -803,39 +791,39 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006134</t>
+          <t>BCIO:037003</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>automatic motivation</t>
+          <t>affordability intervention criterion</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves habitual, instinctive, drive-related and affective processes.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved within an available budget.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Motivation that involves a) responding habitually or instinctively, or b) wants and needs arising from emotions or drives.</t>
+          <t>How far an intervention or part of an intervention can or is likely to be implemented within an available budget.</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
@@ -846,14 +834,18 @@
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006134 to improve it</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>affordability</t>
+        </is>
+      </c>
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>This is not limited to habitual and instinctive motivational processes and can form part  of experience. The term 'automatic' does not mean 'nonconscious' but rather than the process does not involve reflective, propositional thought processes. It does involve emotional reactions and response to drive states.</t>
+          <t>This is not the same as cost-effectiveness. An interventio  can be highly cost-effective and still not be considered affordable if there is no budget for it.</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr"/>
@@ -876,29 +868,29 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037004</t>
+          <t>BCIO:006134</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>behaviour change communications and marketing</t>
+          <t>automatic motivation</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves using correspondence, print, signage, electronic, or broadcast media to deliver messaging.</t>
+          <t>A motivation that involves habitual, instinctive, drive-related and affective processes.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Using communication channels, including electronic, print and broadcast media and correspondence to deliver messaging.</t>
+          <t>Motivation that involves a) responding habitually or instinctively, or b) wants and needs arising from emotions or drives.</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -908,7 +900,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
@@ -919,18 +911,14 @@
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>communication and marketing</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006134 to improve it</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>This includes mass media, social media, and all types of marketing, including highly targeted and tailored marketing.</t>
+          <t>This is not limited to habitual and instinctive motivational processes and can form part  of experience. The term 'automatic' does not mean 'nonconscious' but rather than the process does not involve reflective, propositional thought processes. It does involve emotional reactions and response to drive states.</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr"/>
@@ -953,22 +941,22 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037005</t>
+          <t>BCIO:037004</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>behaviour change environmental and social planning</t>
+          <t>behaviour change communications and marketing</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves a formal planning process andto create and implement changes to the physical or social environment.</t>
+          <t>A behaviour change policy option that involves using correspondence, print, signage, electronic, or broadcast media to deliver messaging.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Using  a formal planning process to create and implement changes to the physical or social environment.</t>
+          <t>Using communication channels, including electronic, print and broadcast media and correspondence to deliver messaging.</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
@@ -1001,13 +989,13 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>environmental and social planning</t>
+          <t>communication and marketing</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>This includes all urban and rural planning, planning relating to road and other forms of transport infrastructure. It also includes organisational planning regarding physical environments undertaken by organisations. It also includes planning social services programmes, services, and policies.</t>
+          <t>This includes mass media, social media, and all types of marketing, including highly targeted and tailored marketing.</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr"/>
@@ -1030,22 +1018,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037006</t>
+          <t>BCIO:037005</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>behaviour change fiscal measure</t>
+          <t>behaviour change environmental and social planning</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves implementing financial rules, including taxation.</t>
+          <t>A behaviour change policy option that involves a formal planning process andto create and implement changes to the physical or social environment.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Implementing financial rules, including taxation.</t>
+          <t>Using  a formal planning process to create and implement changes to the physical or social environment.</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -1078,13 +1066,13 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>fiscal measure</t>
+          <t>environmental and social planning</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr"/>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>This includes all policies relating to tax and fee structures and financial incentive schemes by governments and organisations of all kinds.</t>
+          <t>This includes all urban and rural planning, planning relating to road and other forms of transport infrastructure. It also includes organisational planning regarding physical environments undertaken by organisations. It also includes planning social services programmes, services, and policies.</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr"/>
@@ -1107,22 +1095,22 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037007</t>
+          <t>BCIO:037006</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>behaviour change guideline provision</t>
+          <t>behaviour change fiscal measure</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves creating and disseminating documents that include recommendations for actions or practices.</t>
+          <t>A behaviour change policy option that involves implementing financial rules, including taxation.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Creating and disseminating guidelines.</t>
+          <t>Implementing financial rules, including taxation.</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
@@ -1155,13 +1143,13 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>guideline provision</t>
+          <t>fiscal measure</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>This includes both the development, dissemination and promotion of guidelines. It does not include application of sanctions or incentives, which are covered by other policy options.</t>
+          <t>This includes all policies relating to tax and fee structures and financial incentive schemes by governments and organisations of all kinds.</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr"/>
@@ -1184,29 +1172,29 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t>BCIO:037007</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>behaviour change guideline provision</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
+          <t>A behaviour change policy option that involves creating and disseminating documents that include recommendations for actions or practices.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Something done to influence behaviour.</t>
+          <t>Creating and disseminating guidelines.</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1225,14 +1213,22 @@
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr"/>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>guideline provision</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>This includes both the development, dissemination and promotion of guidelines. It does not include application of sanctions or incentives, which are covered by other policy options.</t>
+        </is>
+      </c>
       <c r="T10" s="2" t="inlineStr"/>
       <c r="U10" s="2" t="inlineStr">
         <is>
@@ -1253,29 +1249,29 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:003000</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>The means by which a behaviour change intervention is delivered.</t>
+          <t>Something done to influence behaviour.</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1297,15 +1293,11 @@
       <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>mode of delivery</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr">
-        <is>
-          <t>This includes all the ways in which a behaviour change intervention can be delivered and has a large number of subclasses defined in the BCIO.</t>
-        </is>
-      </c>
+      <c r="S11" s="2" t="inlineStr"/>
       <c r="T11" s="2" t="inlineStr"/>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1326,29 +1318,29 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037008</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change legislation</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves developing and enacting legal instruments.</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>Developing and enacting laws.</t>
+          <t>The means by which a behaviour change intervention is delivered.</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1367,18 +1359,18 @@
       <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>legislation</t>
+          <t>mode of delivery</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr"/>
-      <c r="S12" s="2" t="inlineStr"/>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>This includes all the ways in which a behaviour change intervention can be delivered and has a large number of subclasses defined in the BCIO.</t>
+        </is>
+      </c>
       <c r="T12" s="2" t="inlineStr"/>
       <c r="U12" s="2" t="inlineStr">
         <is>
@@ -1399,29 +1391,29 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037009</t>
+          <t>BCIO:037008</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>behaviour change legislation</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is enacted by a government or organisation and aims to implement a behaviour change intervention.</t>
+          <t>A behaviour change policy option that involves developing and enacting legal instruments.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Strategic options that governments or organisations have for putting into effect behaviour change interventions.</t>
+          <t>Developing and enacting laws.</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1447,15 +1439,11 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>policy option</t>
+          <t>legislation</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class </t>
-        </is>
-      </c>
+      <c r="S13" s="2" t="inlineStr"/>
       <c r="T13" s="2" t="inlineStr"/>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1476,29 +1464,29 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037010</t>
+          <t>BCIO:037009</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>behaviour change regulation</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves creating and implementing rules of behaviour that do not involve legislation.</t>
+          <t>A planned process that is enacted by a government or organisation and aims to implement a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Creating and implementing regulations short of legislation.</t>
+          <t>Strategic options that governments or organisations have for putting into effect behaviour change interventions.</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1524,11 +1512,15 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>regulation</t>
+          <t>policy option</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class </t>
+        </is>
+      </c>
       <c r="T14" s="2" t="inlineStr"/>
       <c r="U14" s="2" t="inlineStr">
         <is>
@@ -1549,22 +1541,22 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037011</t>
+          <t>BCIO:037010</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>behaviour change service provision</t>
+          <t>behaviour change regulation</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves providing one or more services, or material or informational resources.</t>
+          <t>A behaviour change policy option that involves creating and implementing rules of behaviour that do not involve legislation.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Providing a service or resources.</t>
+          <t>Creating and implementing regulations short of legislation.</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1597,7 +1589,7 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>service provision</t>
+          <t>regulation</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr"/>
@@ -1622,29 +1614,29 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:033000</t>
+          <t>BCIO:037011</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>behaviour change technique</t>
+          <t>behaviour change service provision</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>A behaviour change policy option that involves providing one or more services, or material or informational resources.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>The smallest part of a behaviour change intervention that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+          <t>Providing a service or resources.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1663,10 +1655,14 @@
       <c r="M16" s="2" t="inlineStr"/>
       <c r="N16" s="2" t="inlineStr"/>
       <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>BCT</t>
+          <t>service provision</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr"/>
@@ -1689,195 +1685,191 @@
       <c r="AA16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:033000</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change technique</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>The smallest part of a behaviour change intervention that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr"/>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>BCT</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr"/>
+      <c r="T17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr"/>
+      <c r="W17" s="2" t="inlineStr"/>
+      <c r="X17" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y17" s="2" t="inlineStr"/>
+      <c r="Z17" s="2" t="inlineStr"/>
+      <c r="AA17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>MF:0000048</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>behavioural capability</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>A personal disposition that together with behavioural opportunity makes a behaviour possible or facilitates it.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>The set of physical and psychological abilities of a person in relation to a given behaviour.</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>personal disposition</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
         <is>
           <t>MoA: personal capability</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
         <is>
           <t>Amend MF:0000048 and MoA to reflect new label and definition?</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>capability</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
         <is>
           <t>All references to this entity must specify what behaviour the capability relates to. Capability can be construed quantitatively (how capable) and as a dichotomy (capable or not). This is different from 'ability' in that the latter does not stand in relation to a behaviour.</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr">
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037012</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>behavioural diagnosis</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>A process  that aims to identify types, parts or attributes of capability, opportunity or motivation that can usefully be targeted to achieve a desired behaviour.</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Part of the development of a behaviour change intervention that involves deciding what combination of capability, opportunity or motivation can be most usefully targeted.</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>Intervention plan</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention plan ontology (yet to be created)</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>COM-B diagnosis</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr"/>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V18" s="2" t="inlineStr"/>
-      <c r="W18" s="2" t="inlineStr"/>
-      <c r="X18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y18" s="2" t="inlineStr"/>
-      <c r="Z18" s="2" t="inlineStr"/>
-      <c r="AA18" s="2" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037013</t>
+          <t>BCIO:037012</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural diagnosis</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>An environmental disposition that together with behavioural capability makes a behaviour possible or facilitates it.</t>
+          <t>A process  that aims to identify types, parts or attributes of capability, opportunity or motivation that can usefully be targeted to achieve a desired behaviour.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Properties of a person's environment that make it possible or easier for them to enact a behaviour.</t>
+          <t>Part of the development of a behaviour change intervention that involves deciding what combination of capability, opportunity or motivation can be most usefully targeted.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention plan</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
@@ -1888,12 +1880,12 @@
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006086 in MoA ontology?</t>
+          <t>Add to intervention plan ontology (yet to be created)</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>COM-B diagnosis</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr"/>
@@ -1905,11 +1897,7 @@
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr"/>
-      <c r="W19" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W19" s="2" t="inlineStr"/>
       <c r="X19" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1920,161 +1908,175 @@
       <c r="AA19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037013</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>An environmental disposition that together with behavioural capability makes a behaviour possible or facilitates it.</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that make it possible or easier for them to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>Mechanism of action</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr"/>
+      <c r="K20" s="2" t="inlineStr"/>
+      <c r="L20" s="2" t="inlineStr"/>
+      <c r="M20" s="2" t="inlineStr"/>
+      <c r="N20" s="2" t="inlineStr"/>
+      <c r="O20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>Amend BCIO:006086 in MoA ontology?</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr"/>
+      <c r="S20" s="2" t="inlineStr"/>
+      <c r="T20" s="2" t="inlineStr"/>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr"/>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X20" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y20" s="2" t="inlineStr"/>
+      <c r="Z20" s="2" t="inlineStr"/>
+      <c r="AA20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>MF:0000032</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A disposition that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>A disposition of any kind of organism.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:0050003</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>A process in which at least one bodily component of an organsim participates.</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>A process occurring in an organism.</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Mechanism of action</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr"/>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
-      <c r="W21" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X21" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y21" s="2" t="inlineStr"/>
-      <c r="Z21" s="2" t="inlineStr"/>
-      <c r="AA21" s="2" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037014</t>
+          <t>BCIO:0050003</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that involves the brain.</t>
+          <t>A process in which at least one bodily component of an organsim participates.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>A process that occurs in the brain.</t>
+          <t>A process occurring in an organism.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2093,22 +2095,20 @@
       <c r="M22" s="2" t="inlineStr"/>
       <c r="N22" s="2" t="inlineStr"/>
       <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
+      <c r="P22" s="2" t="inlineStr"/>
       <c r="Q22" s="2" t="inlineStr"/>
       <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr"/>
       <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="U22" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="2" t="inlineStr"/>
-      <c r="W22" s="2" t="inlineStr"/>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X22" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2121,29 +2121,29 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037015</t>
+          <t>BCIO:037014</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>coercive behaviour change intervention</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>A bodily process that involves the brain.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Applying costs or punishments to a behaviour.</t>
+          <t>A process that occurs in the brain.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2153,7 +2153,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
@@ -2164,20 +2164,12 @@
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>coercion</t>
-        </is>
-      </c>
+          <t>Add to MoA and MF?</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr"/>
       <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
-        </is>
-      </c>
+      <c r="S23" s="2" t="inlineStr"/>
       <c r="T23" s="2" t="inlineStr"/>
       <c r="U23" s="2" t="inlineStr">
         <is>
@@ -2196,178 +2188,186 @@
       <c r="AA23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037015</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>coercive behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Applying costs or punishments to a behaviour.</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>behaviour change intervention</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>coercion</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr"/>
+      <c r="W24" s="2" t="inlineStr"/>
+      <c r="X24" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y24" s="2" t="inlineStr"/>
+      <c r="Z24" s="2" t="inlineStr"/>
+      <c r="AA24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000008 </t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Creation or manipulation of mental representations of information.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>Question as to whether this is better as a psychological process since this class does not necessarily involve conscious experience</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr">
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X24" t="inlineStr">
+      <c r="X25" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037016</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>criterion</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>A standard that can be used to evaluate something.</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>Information content entity</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr"/>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr"/>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V25" s="2" t="inlineStr"/>
-      <c r="W25" s="2" t="inlineStr"/>
-      <c r="X25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y25" s="2" t="inlineStr"/>
-      <c r="Z25" s="2" t="inlineStr"/>
-      <c r="AA25" s="2" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037017</t>
+          <t>BCIO:037016</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>educational behaviour change intervention</t>
+          <t>criterion</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
+          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
+          <t>A standard that can be used to evaluate something.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>Information content entity</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -2386,17 +2386,9 @@
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
+      <c r="Q26" s="2" t="inlineStr"/>
       <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>This class separates education from training even though in common discourse training is often included within education.</t>
-        </is>
-      </c>
+      <c r="S26" s="2" t="inlineStr"/>
       <c r="T26" s="2" t="inlineStr"/>
       <c r="U26" s="2" t="inlineStr">
         <is>
@@ -2417,34 +2409,34 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037018</t>
+          <t>BCIO:037017</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>effectiveness intervention criterion</t>
+          <t>educational behaviour change intervention</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
+          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
+          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -2465,13 +2457,13 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>education</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
+          <t>This class separates education from training even though in common discourse training is often included within education.</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr"/>
@@ -2494,34 +2486,34 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037019</t>
+          <t>BCIO:037018</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>enablement behaviour change inervention</t>
+          <t>effectiveness intervention criterion</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
+          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -2542,13 +2534,13 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>enablement</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
+          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr"/>
@@ -2571,39 +2563,39 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050001</t>
+          <t>BCIO:037019</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>enablement behaviour change inervention</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A disposition inhering in an environmental system.</t>
+          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>A disposition of an environment.</t>
+          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Setting</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
@@ -2612,10 +2604,22 @@
       <c r="M29" s="2" t="inlineStr"/>
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr"/>
-      <c r="Q29" s="2" t="inlineStr"/>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>enablement</t>
+        </is>
+      </c>
       <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr"/>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
+        </is>
+      </c>
       <c r="T29" s="2" t="inlineStr"/>
       <c r="U29" s="2" t="inlineStr">
         <is>
@@ -2623,11 +2627,7 @@
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr"/>
-      <c r="W29" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W29" s="2" t="inlineStr"/>
       <c r="X29" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2640,39 +2640,39 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037020</t>
+          <t>BCIO:0050001</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>environmental restructuring behaviour change intervention</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
+          <t>A disposition inhering in an environmental system.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
+          <t>A disposition of an environment.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
@@ -2681,22 +2681,10 @@
       <c r="M30" s="2" t="inlineStr"/>
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>environmental restructuring</t>
-        </is>
-      </c>
+      <c r="P30" s="2" t="inlineStr"/>
+      <c r="Q30" s="2" t="inlineStr"/>
       <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
-        </is>
-      </c>
+      <c r="S30" s="2" t="inlineStr"/>
       <c r="T30" s="2" t="inlineStr"/>
       <c r="U30" s="2" t="inlineStr">
         <is>
@@ -2704,7 +2692,11 @@
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr"/>
-      <c r="W30" s="2" t="inlineStr"/>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X30" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2717,34 +2709,34 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037021</t>
+          <t>BCIO:037020</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>equity intervention criterion</t>
+          <t>environmental restructuring behaviour change intervention</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
+          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2765,13 +2757,13 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>environmental restructuring</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr"/>
@@ -2794,43 +2786,39 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:037021</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>equity intervention criterion</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Human activity that is individual human behaviour or population behaviour</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>The actions of people, either as individuals or groups or populations.</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>'individual human behaviour' or 'population behaviour'</t>
-        </is>
-      </c>
+          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>human activity</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
@@ -2841,16 +2829,20 @@
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
+        </is>
+      </c>
       <c r="T32" s="2" t="inlineStr"/>
       <c r="U32" s="2" t="inlineStr">
         <is>
@@ -2871,29 +2863,33 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037022</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>incentivisation  behaviour change intervention</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>Human activity that is individual human behaviour or population behaviour</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Applying rewards to a behaviour.</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>The actions of people, either as individuals or groups or populations.</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>'individual human behaviour' or 'population behaviour'</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>human activity</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2903,7 +2899,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
@@ -2914,20 +2910,16 @@
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
+          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>incentivisation</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
-        </is>
-      </c>
+      <c r="S33" s="2" t="inlineStr"/>
       <c r="T33" s="2" t="inlineStr"/>
       <c r="U33" s="2" t="inlineStr">
         <is>
@@ -2948,29 +2940,29 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036000</t>
+          <t>BCIO:037022</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>incentivisation  behaviour change intervention</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
+          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>The actions of individual people.</t>
+          <t>Applying rewards to a behaviour.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2980,7 +2972,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
@@ -2989,14 +2981,22 @@
       <c r="M34" s="2" t="inlineStr"/>
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>incentivisation</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
+        </is>
+      </c>
       <c r="T34" s="2" t="inlineStr"/>
       <c r="U34" s="2" t="inlineStr">
         <is>
@@ -3017,29 +3017,29 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037000</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
+          <t xml:space="preserve">Individual human activity that involves co-ordinated contraction of striated muscles controlled by the brain. </t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Something done to influence an outcome.</t>
+          <t>The actions of individual people.</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr"/>
@@ -3059,7 +3059,11 @@
       <c r="N35" s="2" t="inlineStr"/>
       <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="inlineStr"/>
-      <c r="Q35" s="2" t="inlineStr"/>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>behaviour</t>
+        </is>
+      </c>
       <c r="R35" s="2" t="inlineStr"/>
       <c r="S35" s="2" t="inlineStr"/>
       <c r="T35" s="2" t="inlineStr"/>
@@ -3082,39 +3086,39 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Something done to influence an outcome.</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr"/>
@@ -3124,11 +3128,7 @@
       <c r="N36" s="2" t="inlineStr"/>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
+      <c r="Q36" s="2" t="inlineStr"/>
       <c r="R36" s="2" t="inlineStr"/>
       <c r="S36" s="2" t="inlineStr"/>
       <c r="T36" s="2" t="inlineStr"/>
@@ -3151,39 +3151,39 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037023</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>intervention stakeholder</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Any person or organisation with a legitimate interest in an intervention</t>
+          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
@@ -3192,14 +3192,10 @@
       <c r="M37" s="2" t="inlineStr"/>
       <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="P37" s="2" t="inlineStr"/>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr"/>
@@ -3222,177 +3218,173 @@
       <c r="AA37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037023</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>intervention stakeholder</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Any person or organisation with a legitimate interest in an intervention</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>social role</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr"/>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr"/>
+      <c r="W38" s="2" t="inlineStr"/>
+      <c r="X38" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y38" s="2" t="inlineStr"/>
+      <c r="Z38" s="2" t="inlineStr"/>
+      <c r="AA38" s="2" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>A bodily process that is of a type such that it can of itself be conscious.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>A brain process that involves conscious exerience.</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>MF:0000020 MF definition should be tidied up to confirm to recommended structure and perhaps parent is better as brain process?</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr">
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037024</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>modelling behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>Providing an example for people to imitate, learn from or aspire to.</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>modelling</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V39" s="2" t="inlineStr"/>
-      <c r="W39" s="2" t="inlineStr"/>
-      <c r="X39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y39" s="2" t="inlineStr"/>
-      <c r="Z39" s="2" t="inlineStr"/>
-      <c r="AA39" s="2" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:037024</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>modelling behaviour change intervention</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour.</t>
+          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
+          <t>Providing an example for people to imitate, learn from or aspire to.</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -3402,7 +3394,7 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr"/>
@@ -3413,12 +3405,20 @@
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006133 in MoA to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>modelling</t>
+        </is>
+      </c>
       <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
+        </is>
+      </c>
       <c r="T40" s="2" t="inlineStr"/>
       <c r="U40" s="2" t="inlineStr">
         <is>
@@ -3439,39 +3439,39 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037025</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>negative behavioural contingency</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A process in which an undesirable event results from a behaviour.</t>
+          <t>A psychological process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a punishment or cost.</t>
+          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
+          <t>psychological process</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
@@ -3482,7 +3482,7 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:006133 in MoA to correct the definition</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr"/>
@@ -3508,29 +3508,29 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:037025</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>negative behavioural contingency</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A process in which an undesirable event results from a behaviour.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Linking a behaviour to a punishment or cost.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
@@ -3549,7 +3549,11 @@
       <c r="M42" s="2" t="inlineStr"/>
       <c r="N42" s="2" t="inlineStr"/>
       <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
       <c r="Q42" s="2" t="inlineStr"/>
       <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr"/>
@@ -3573,39 +3577,39 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050002</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>personal disposition</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>A disposition that inheres in a person.</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A disposition of a person.</t>
+          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
@@ -3619,15 +3623,13 @@
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr"/>
       <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="n">
-        <v>0</v>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V43" s="2" t="inlineStr"/>
-      <c r="W43" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W43" s="2" t="inlineStr"/>
       <c r="X43" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3640,39 +3642,39 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037026</t>
+          <t>BCIO:0050002</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>persuasive behaviour change intervention</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
+          <t>A disposition that inheres in a person.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
+          <t>A disposition of a person.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
@@ -3681,16 +3683,8 @@
       <c r="M44" s="2" t="inlineStr"/>
       <c r="N44" s="2" t="inlineStr"/>
       <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>persuasion</t>
-        </is>
-      </c>
+      <c r="P44" s="2" t="inlineStr"/>
+      <c r="Q44" s="2" t="inlineStr"/>
       <c r="R44" s="2" t="inlineStr"/>
       <c r="S44" s="2" t="inlineStr"/>
       <c r="T44" s="2" t="inlineStr"/>
@@ -3700,7 +3694,11 @@
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr"/>
-      <c r="W44" s="2" t="inlineStr"/>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X44" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3713,39 +3711,39 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:037026</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>persuasive behaviour change intervention</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>A person's abilities arising from their physique and bodily functioning.</t>
+          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
@@ -3756,16 +3754,16 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q45" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>persuasion</t>
+        </is>
+      </c>
       <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr">
-        <is>
-          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
-        </is>
-      </c>
+      <c r="S45" s="2" t="inlineStr"/>
       <c r="T45" s="2" t="inlineStr"/>
       <c r="U45" s="2" t="inlineStr">
         <is>
@@ -3786,29 +3784,29 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
+          <t>A person's abilities arising from their physique and bodily functioning.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -3829,14 +3827,14 @@
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006089 in MoA?</t>
+          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr"/>
       <c r="R46" s="2" t="inlineStr"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
-          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
         </is>
       </c>
       <c r="T46" s="2" t="inlineStr"/>
@@ -3859,39 +3857,39 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
+          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>The actions of groups of people or populations.</t>
+          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>population human activity</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J47" s="2" t="inlineStr"/>
@@ -3902,12 +3900,16 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
+          <t>Amend BCIO:006089 in MoA?</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr"/>
       <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+        </is>
+      </c>
       <c r="T47" s="2" t="inlineStr"/>
       <c r="U47" s="2" t="inlineStr">
         <is>
@@ -3923,48 +3925,44 @@
       </c>
       <c r="Y47" s="2" t="inlineStr"/>
       <c r="Z47" s="2" t="inlineStr"/>
-      <c r="AA47" s="2" t="inlineStr">
-        <is>
-          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
-        </is>
-      </c>
+      <c r="AA47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037027</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>positive behavioural contingency</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A process in which a desirable event follows from a behaviour.</t>
+          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a reward</t>
+          <t>The actions of groups of people or populations.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
+          <t>population human activity</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr"/>
@@ -3975,7 +3973,7 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr"/>
@@ -3996,39 +3994,43 @@
       </c>
       <c r="Y48" s="2" t="inlineStr"/>
       <c r="Z48" s="2" t="inlineStr"/>
-      <c r="AA48" s="2" t="inlineStr"/>
+      <c r="AA48" s="2" t="inlineStr">
+        <is>
+          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037028</t>
+          <t>BCIO:037027</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>practicability intervention criterion</t>
+          <t>positive behavioural contingency</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
+          <t>A process in which a desirable event follows from a behaviour.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
+          <t>Linking a behaviour to a reward</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -4044,20 +4046,12 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>practicability</t>
-        </is>
-      </c>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr"/>
       <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
-        </is>
-      </c>
+      <c r="S49" s="2" t="inlineStr"/>
       <c r="T49" s="2" t="inlineStr"/>
       <c r="U49" s="2" t="inlineStr">
         <is>
@@ -4078,39 +4072,39 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037029</t>
+          <t>BCIO:037028</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>psychological behavioural capability</t>
+          <t>practicability intervention criterion</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
+          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J50" s="2" t="inlineStr"/>
@@ -4121,16 +4115,20 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF as distinct from mental capability?</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
         <is>
-          <t>psychological capability</t>
+          <t>practicability</t>
         </is>
       </c>
       <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
+        </is>
+      </c>
       <c r="T50" s="2" t="inlineStr"/>
       <c r="U50" s="2" t="inlineStr">
         <is>
@@ -4151,34 +4149,34 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037030</t>
+          <t>BCIO:037029</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>psychological behavioural capability</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
+          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>A process underpinning experience or generation of behaviour.</t>
+          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
@@ -4194,10 +4192,14 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr"/>
+          <t>Add to MoA and MF as distinct from mental capability?</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>psychological capability</t>
+        </is>
+      </c>
       <c r="R51" s="2" t="inlineStr"/>
       <c r="S51" s="2" t="inlineStr"/>
       <c r="T51" s="2" t="inlineStr"/>
@@ -4220,29 +4222,29 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037031</t>
+          <t>BCIO:037030</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>reflective motivation</t>
+          <t>psychological process</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves reflective thinking.</t>
+          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>Psychological processes of conscious planning and decision making.</t>
+          <t>A process underpinning experience or generation of behaviour.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -4263,16 +4265,12 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA</t>
+          <t>Add to MoA and MF?</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr"/>
       <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
-        </is>
-      </c>
+      <c r="S52" s="2" t="inlineStr"/>
       <c r="T52" s="2" t="inlineStr"/>
       <c r="U52" s="2" t="inlineStr">
         <is>
@@ -4293,29 +4291,29 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:037031</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>reflective motivation</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
+          <t>A motivation that involves reflective thinking.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Conscious reasoning, estimation, calculation or decision making.</t>
+          <t>Psychological processes of conscious planning and decision making.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -4336,12 +4334,16 @@
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006112 to reflect improved definition?</t>
+          <t>Add to MoA</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr"/>
       <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
+        </is>
+      </c>
       <c r="T53" s="2" t="inlineStr"/>
       <c r="U53" s="2" t="inlineStr">
         <is>
@@ -4362,29 +4364,29 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037032</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>restriction behaviour change intervention</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
+          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Using formal social rules to set boundaries for a behaviour.</t>
+          <t>Conscious reasoning, estimation, calculation or decision making.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -4394,7 +4396,7 @@
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J54" s="2" t="inlineStr"/>
@@ -4405,20 +4407,12 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>restriction</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006112 to reflect improved definition?</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr"/>
       <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>This involves what people should do as well as what they are not allowed to do.</t>
-        </is>
-      </c>
+      <c r="S54" s="2" t="inlineStr"/>
       <c r="T54" s="2" t="inlineStr"/>
       <c r="U54" s="2" t="inlineStr">
         <is>
@@ -4439,39 +4433,39 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:037032</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>restriction behaviour change intervention</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+          <t>Using formal social rules to set boundaries for a behaviour.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr"/>
@@ -4482,12 +4476,20 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>Amend in MoA?</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>restriction</t>
+        </is>
+      </c>
       <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>This involves what people should do as well as what they are not allowed to do.</t>
+        </is>
+      </c>
       <c r="T55" s="2" t="inlineStr"/>
       <c r="U55" s="2" t="inlineStr">
         <is>
@@ -4508,39 +4510,39 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037033</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>spill-over effect intervention criterion</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
@@ -4551,20 +4553,12 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>side-effect, spill-over effect, unintended consequence</t>
-        </is>
-      </c>
+          <t>Amend in MoA?</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr"/>
       <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
-        </is>
-      </c>
+      <c r="S56" s="2" t="inlineStr"/>
       <c r="T56" s="2" t="inlineStr"/>
       <c r="U56" s="2" t="inlineStr">
         <is>
@@ -4583,142 +4577,219 @@
       <c r="AA56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037033</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>spill-over effect intervention criterion</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>APEASE criterion</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>side-effect, spill-over effect, unintended consequence</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
+        </is>
+      </c>
+      <c r="T57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V57" s="2" t="inlineStr"/>
+      <c r="W57" s="2" t="inlineStr"/>
+      <c r="X57" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y57" s="2" t="inlineStr"/>
+      <c r="Z57" s="2" t="inlineStr"/>
+      <c r="AA57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>Reasoning with words, symbols or images.</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>BCIO:0050000</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>training behaviour change inervention</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention  that involves using demonstration, feedback or practice to improve physical or psychological skills.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>Using demonstration, feedback, and practice to improve physical or psychological skills such as ability to analyse information and plan on the basis of that information.</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="H58" s="2" t="inlineStr">
+      <c r="H59" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr">
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr">
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="inlineStr">
+      <c r="Q59" s="2" t="inlineStr">
         <is>
           <t>training</t>
         </is>
       </c>
-      <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr"/>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V58" s="2" t="inlineStr"/>
-      <c r="W58" s="2" t="inlineStr"/>
-      <c r="X58" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y58" s="2" t="inlineStr"/>
-      <c r="Z58" s="2" t="inlineStr"/>
-      <c r="AA58" s="2" t="inlineStr"/>
+      <c r="R59" s="2" t="inlineStr"/>
+      <c r="S59" s="2" t="inlineStr"/>
+      <c r="T59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V59" s="2" t="inlineStr"/>
+      <c r="W59" s="2" t="inlineStr"/>
+      <c r="X59" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y59" s="2" t="inlineStr"/>
+      <c r="Z59" s="2" t="inlineStr"/>
+      <c r="AA59" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -645,39 +645,39 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
+          <t>BCIO:037002</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Individual human activity</t>
+          <t>acceptability intervention criterion</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>A process that is produced by a person.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is liked or engaged with by stakeholders.</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Something that someone does, whether it be mental or physical.</t>
+          <t>How far an intervention or some part of it is or or is likely to be liked or engaged with.</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr"/>
@@ -686,12 +686,28 @@
       <c r="M3" s="2" t="inlineStr"/>
       <c r="N3" s="2" t="inlineStr"/>
       <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
-      <c r="Q3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>acceptability</t>
+        </is>
+      </c>
       <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>This  potentially includes several related dimensions covering attitudes and behaviours.</t>
+        </is>
+      </c>
       <c r="T3" s="2" t="inlineStr"/>
-      <c r="U3" s="2" t="inlineStr"/>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="V3" s="2" t="inlineStr"/>
       <c r="W3" s="2" t="inlineStr">
         <is>
@@ -710,22 +726,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037002</t>
+          <t>BCIO:037003</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>acceptability intervention criterion</t>
+          <t>affordability intervention criterion</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is liked or engaged with by stakeholders.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved within an available budget.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or some part of it is or or is likely to be liked or engaged with.</t>
+          <t>How far an intervention or part of an intervention can or is likely to be implemented within an available budget.</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -758,13 +774,13 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>acceptability</t>
+          <t>affordability</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>This  potentially includes several related dimensions covering attitudes and behaviours.</t>
+          <t>This is not the same as cost-effectiveness. An interventio  can be highly cost-effective and still not be considered affordable if there is no budget for it.</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr"/>
@@ -774,11 +790,7 @@
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr"/>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W4" s="2" t="inlineStr"/>
       <c r="X4" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -791,39 +803,39 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037003</t>
+          <t>BCIO:006134</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>affordability intervention criterion</t>
+          <t>automatic motivation</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved within an available budget.</t>
+          <t>A motivation that involves habitual, instinctive, drive-related and affective processes.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention can or is likely to be implemented within an available budget.</t>
+          <t>Motivation that involves a) responding habitually or instinctively, or b) wants and needs arising from emotions or drives.</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr"/>
@@ -834,18 +846,14 @@
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>affordability</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006134 to improve it</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr"/>
       <c r="R5" s="2" t="inlineStr"/>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>This is not the same as cost-effectiveness. An interventio  can be highly cost-effective and still not be considered affordable if there is no budget for it.</t>
+          <t>This is not limited to habitual and instinctive motivational processes and can form part  of experience. The term 'automatic' does not mean 'nonconscious' but rather than the process does not involve reflective, propositional thought processes. It does involve emotional reactions and response to drive states.</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr"/>
@@ -868,29 +876,29 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006134</t>
+          <t>BCIO:037004</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>automatic motivation</t>
+          <t>behaviour change communications and marketing</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves habitual, instinctive, drive-related and affective processes.</t>
+          <t>A behaviour change policy option that involves using correspondence, print, signage, electronic, or broadcast media to deliver messaging.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Motivation that involves a) responding habitually or instinctively, or b) wants and needs arising from emotions or drives.</t>
+          <t>Using communication channels, including electronic, print and broadcast media and correspondence to deliver messaging.</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -900,7 +908,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr"/>
@@ -911,14 +919,18 @@
       <c r="O6" s="2" t="inlineStr"/>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006134 to improve it</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>communication and marketing</t>
+        </is>
+      </c>
       <c r="R6" s="2" t="inlineStr"/>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>This is not limited to habitual and instinctive motivational processes and can form part  of experience. The term 'automatic' does not mean 'nonconscious' but rather than the process does not involve reflective, propositional thought processes. It does involve emotional reactions and response to drive states.</t>
+          <t>This includes mass media, social media, and all types of marketing, including highly targeted and tailored marketing.</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr"/>
@@ -941,22 +953,22 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037004</t>
+          <t>BCIO:037005</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>behaviour change communications and marketing</t>
+          <t>behaviour change environmental and social planning</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves using correspondence, print, signage, electronic, or broadcast media to deliver messaging.</t>
+          <t>A behaviour change policy option that involves a formal planning process andto create and implement changes to the physical or social environment.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Using communication channels, including electronic, print and broadcast media and correspondence to deliver messaging.</t>
+          <t>Using  a formal planning process to create and implement changes to the physical or social environment.</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
@@ -989,13 +1001,13 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>communication and marketing</t>
+          <t>environmental and social planning</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>This includes mass media, social media, and all types of marketing, including highly targeted and tailored marketing.</t>
+          <t>This includes all urban and rural planning, planning relating to road and other forms of transport infrastructure. It also includes organisational planning regarding physical environments undertaken by organisations. It also includes planning social services programmes, services, and policies.</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr"/>
@@ -1018,22 +1030,22 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037005</t>
+          <t>BCIO:037006</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>behaviour change environmental and social planning</t>
+          <t>behaviour change fiscal measure</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves a formal planning process andto create and implement changes to the physical or social environment.</t>
+          <t>A behaviour change policy option that involves implementing financial rules, including taxation.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Using  a formal planning process to create and implement changes to the physical or social environment.</t>
+          <t>Implementing financial rules, including taxation.</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
@@ -1066,13 +1078,13 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>environmental and social planning</t>
+          <t>fiscal measure</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr"/>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>This includes all urban and rural planning, planning relating to road and other forms of transport infrastructure. It also includes organisational planning regarding physical environments undertaken by organisations. It also includes planning social services programmes, services, and policies.</t>
+          <t>This includes all policies relating to tax and fee structures and financial incentive schemes by governments and organisations of all kinds.</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr"/>
@@ -1095,22 +1107,22 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037006</t>
+          <t>BCIO:037007</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>behaviour change fiscal measure</t>
+          <t>behaviour change guideline provision</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves implementing financial rules, including taxation.</t>
+          <t>A behaviour change policy option that involves creating and disseminating documents that include recommendations for actions or practices.</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Implementing financial rules, including taxation.</t>
+          <t>Creating and disseminating guidelines.</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr"/>
@@ -1143,13 +1155,13 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>fiscal measure</t>
+          <t>guideline provision</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>This includes all policies relating to tax and fee structures and financial incentive schemes by governments and organisations of all kinds.</t>
+          <t>This includes both the development, dissemination and promotion of guidelines. It does not include application of sanctions or incentives, which are covered by other policy options.</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr"/>
@@ -1172,29 +1184,29 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037007</t>
+          <t>BCIO:003000</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change guideline provision</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves creating and disseminating documents that include recommendations for actions or practices.</t>
+          <t>An intervention that has the aim of influencing human behaviour.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Creating and disseminating guidelines.</t>
+          <t>Something done to influence behaviour.</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1213,22 +1225,14 @@
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>guideline provision</t>
+          <t>BCI</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr"/>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>This includes both the development, dissemination and promotion of guidelines. It does not include application of sanctions or incentives, which are covered by other policy options.</t>
-        </is>
-      </c>
+      <c r="S10" s="2" t="inlineStr"/>
       <c r="T10" s="2" t="inlineStr"/>
       <c r="U10" s="2" t="inlineStr">
         <is>
@@ -1249,29 +1253,29 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>BCIO:003000</t>
+          <t>BCIO:011000</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>behaviour change intervention mode of delivery</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>An intervention that has the aim of influencing human behaviour.</t>
+          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>Something done to influence behaviour.</t>
+          <t>The means by which a behaviour change intervention is delivered.</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr"/>
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>intervention</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1293,11 +1297,15 @@
       <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>BCI</t>
+          <t>mode of delivery</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr"/>
-      <c r="S11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>This includes all the ways in which a behaviour change intervention can be delivered and has a large number of subclasses defined in the BCIO.</t>
+        </is>
+      </c>
       <c r="T11" s="2" t="inlineStr"/>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1318,29 +1326,29 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>BCIO:011000</t>
+          <t>BCIO:037008</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention mode of delivery</t>
+          <t>behaviour change legislation</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>A behaviour change policy option that involves developing and enacting legal instruments.</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>The means by which a behaviour change intervention is delivered.</t>
+          <t>Developing and enacting laws.</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1359,18 +1367,18 @@
       <c r="M12" s="2" t="inlineStr"/>
       <c r="N12" s="2" t="inlineStr"/>
       <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>mode of delivery</t>
+          <t>legislation</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr"/>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>This includes all the ways in which a behaviour change intervention can be delivered and has a large number of subclasses defined in the BCIO.</t>
-        </is>
-      </c>
+      <c r="S12" s="2" t="inlineStr"/>
       <c r="T12" s="2" t="inlineStr"/>
       <c r="U12" s="2" t="inlineStr">
         <is>
@@ -1391,29 +1399,29 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037008</t>
+          <t>BCIO:037009</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change legislation</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves developing and enacting legal instruments.</t>
+          <t>A planned process that is enacted by a government or organisation and aims to implement a behaviour change intervention.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>Developing and enacting laws.</t>
+          <t>Strategic options that governments or organisations have for putting into effect behaviour change interventions.</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr"/>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1439,11 +1447,15 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>legislation</t>
+          <t>policy option</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This class </t>
+        </is>
+      </c>
       <c r="T13" s="2" t="inlineStr"/>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1464,29 +1476,29 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037009</t>
+          <t>BCIO:037010</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>behaviour change regulation</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>A planned process that is enacted by a government or organisation and aims to implement a behaviour change intervention.</t>
+          <t>A behaviour change policy option that involves creating and implementing rules of behaviour that do not involve legislation.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>Strategic options that governments or organisations have for putting into effect behaviour change interventions.</t>
+          <t>Creating and implementing regulations short of legislation.</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr"/>
       <c r="F14" s="2" t="inlineStr"/>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>planned process</t>
+          <t>behaviour change policy option</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1512,15 +1524,11 @@
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>policy option</t>
+          <t>regulation</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This class </t>
-        </is>
-      </c>
+      <c r="S14" s="2" t="inlineStr"/>
       <c r="T14" s="2" t="inlineStr"/>
       <c r="U14" s="2" t="inlineStr">
         <is>
@@ -1541,22 +1549,22 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037010</t>
+          <t>BCIO:037011</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>behaviour change regulation</t>
+          <t>behaviour change service provision</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves creating and implementing rules of behaviour that do not involve legislation.</t>
+          <t>A behaviour change policy option that involves providing one or more services, or material or informational resources.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>Creating and implementing regulations short of legislation.</t>
+          <t>Providing a service or resources.</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1589,7 +1597,7 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>regulation</t>
+          <t>service provision</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr"/>
@@ -1614,29 +1622,29 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037011</t>
+          <t>BCIO:033000</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>behaviour change service provision</t>
+          <t>behaviour change technique</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change policy option that involves providing one or more services, or material or informational resources.</t>
+          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Providing a service or resources.</t>
+          <t>The smallest part of a behaviour change intervention that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>behaviour change policy option</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1655,14 +1663,10 @@
       <c r="M16" s="2" t="inlineStr"/>
       <c r="N16" s="2" t="inlineStr"/>
       <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>service provision</t>
+          <t>BCT</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr"/>
@@ -1685,191 +1689,195 @@
       <c r="AA16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:033000</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change technique</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that is the smallest part of BCI content that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>The smallest part of a behaviour change intervention that is observable, replicable and on its own has the potential to bring about behaviour change.</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MF:0000048</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>behavioural capability</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A personal disposition that together with behavioural opportunity makes a behaviour possible or facilitates it.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>The set of physical and psychological abilities of a person in relation to a given behaviour.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>personal disposition</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Mechanism of action</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>MoA: personal capability</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Amend MF:0000048 and MoA to reflect new label and definition?</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>capability</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>All references to this entity must specify what behaviour the capability relates to. Capability can be construed quantitatively (how capable) and as a dichotomy (capable or not). This is different from 'ability' in that the latter does not stand in relation to a behaviour.</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037012</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>behavioural diagnosis</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>A process  that aims to identify types, parts or attributes of capability, opportunity or motivation that can usefully be targeted to achieve a desired behaviour.</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Part of the development of a behaviour change intervention that involves deciding what combination of capability, opportunity or motivation can be most usefully targeted.</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>BCT</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr"/>
-      <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr"/>
-      <c r="W17" s="2" t="inlineStr"/>
-      <c r="X17" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y17" s="2" t="inlineStr"/>
-      <c r="Z17" s="2" t="inlineStr"/>
-      <c r="AA17" s="2" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MF:0000048</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>behavioural capability</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A personal disposition that together with behavioural opportunity makes a behaviour possible or facilitates it.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>The set of physical and psychological abilities of a person in relation to a given behaviour.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>personal disposition</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Mechanism of action</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>MoA: personal capability</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Amend MF:0000048 and MoA to reflect new label and definition?</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>capability</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>All references to this entity must specify what behaviour the capability relates to. Capability can be construed quantitatively (how capable) and as a dichotomy (capable or not). This is different from 'ability' in that the latter does not stand in relation to a behaviour.</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>Intervention plan</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention plan ontology (yet to be created)</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>COM-B diagnosis</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr"/>
+      <c r="T18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr"/>
+      <c r="W18" s="2" t="inlineStr"/>
+      <c r="X18" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y18" s="2" t="inlineStr"/>
+      <c r="Z18" s="2" t="inlineStr"/>
+      <c r="AA18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037012</t>
+          <t>BCIO:037013</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>behavioural diagnosis</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A process  that aims to identify types, parts or attributes of capability, opportunity or motivation that can usefully be targeted to achieve a desired behaviour.</t>
+          <t>An environmental disposition that together with behavioural capability makes a behaviour possible or facilitates it.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>Part of the development of a behaviour change intervention that involves deciding what combination of capability, opportunity or motivation can be most usefully targeted.</t>
+          <t>Properties of a person's environment that make it possible or easier for them to enact a behaviour.</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Intervention plan</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
@@ -1880,12 +1888,12 @@
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention plan ontology (yet to be created)</t>
+          <t>Amend BCIO:006086 in MoA ontology?</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>COM-B diagnosis</t>
+          <t>opportunity</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr"/>
@@ -1897,7 +1905,11 @@
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr"/>
-      <c r="W19" s="2" t="inlineStr"/>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X19" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1908,175 +1920,165 @@
       <c r="AA19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037013</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>An environmental disposition that together with behavioural capability makes a behaviour possible or facilitates it.</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that make it possible or easier for them to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>environmental disposition</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MF:0000032</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A disposition that inheres in some extended organism.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>A disposition of any kind of organism.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>Amend BCIO:006086 in MoA ontology?</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr"/>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V20" s="2" t="inlineStr"/>
-      <c r="W20" s="2" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X20" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y20" s="2" t="inlineStr"/>
-      <c r="Z20" s="2" t="inlineStr"/>
-      <c r="AA20" s="2" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MF:0000032</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>A disposition that inheres in some extended organism.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>A disposition of any kind of organism.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:0050003</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>A process in which at least one bodily component of an organsim participates.</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>A process occurring in an organism.</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="n">
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="R21" s="2" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr"/>
+      <c r="T21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
+      <c r="V21" s="2" t="inlineStr"/>
+      <c r="W21" s="2" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="X21" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y21" s="2" t="inlineStr"/>
+      <c r="Z21" s="2" t="inlineStr"/>
+      <c r="AA21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050003</t>
+          <t>BCIO:037014</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A process in which at least one bodily component of an organsim participates.</t>
+          <t>A bodily process that involves the brain.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>A process occurring in an organism.</t>
+          <t>A process that occurs in the brain.</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -2095,20 +2097,22 @@
       <c r="M22" s="2" t="inlineStr"/>
       <c r="N22" s="2" t="inlineStr"/>
       <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>Add to MoA and MF?</t>
+        </is>
+      </c>
       <c r="Q22" s="2" t="inlineStr"/>
       <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr"/>
       <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="n">
-        <v>0</v>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="V22" s="2" t="inlineStr"/>
-      <c r="W22" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W22" s="2" t="inlineStr"/>
       <c r="X22" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2121,29 +2125,29 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037014</t>
+          <t>BCIO:037015</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>coercive behaviour change intervention</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that involves the brain.</t>
+          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>A process that occurs in the brain.</t>
+          <t>Applying costs or punishments to a behaviour.</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -2153,7 +2157,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr"/>
@@ -2164,12 +2168,20 @@
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>coercion</t>
+        </is>
+      </c>
       <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
+        </is>
+      </c>
       <c r="T23" s="2" t="inlineStr"/>
       <c r="U23" s="2" t="inlineStr">
         <is>
@@ -2188,186 +2200,178 @@
       <c r="AA23" s="2" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037015</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>coercive behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves applying a negative contingency in order to influence motivation, or informing a person that one intends to do so.</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>Applying costs or punishments to a behaviour.</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000008 </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Creation or manipulation of mental representations of information.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I24" s="2" t="inlineStr">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mechanism of action</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Question as to whether this is better as a psychological process since this class does not necessarily involve conscious experience</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037016</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>criterion</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>A standard that can be used to evaluate something.</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Information content entity</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>coercion</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of punishment as well as financial cost and denial of rewards.</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V24" s="2" t="inlineStr"/>
-      <c r="W24" s="2" t="inlineStr"/>
-      <c r="X24" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y24" s="2" t="inlineStr"/>
-      <c r="Z24" s="2" t="inlineStr"/>
-      <c r="AA24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000008 </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Creation or manipulation of mental representations of information.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Mechanism of action</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Question as to whether this is better as a psychological process since this class does not necessarily involve conscious experience</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
+      <c r="Q25" s="2" t="inlineStr"/>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr"/>
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr"/>
+      <c r="W25" s="2" t="inlineStr"/>
+      <c r="X25" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y25" s="2" t="inlineStr"/>
+      <c r="Z25" s="2" t="inlineStr"/>
+      <c r="AA25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037016</t>
+          <t>BCIO:037017</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>criterion</t>
+          <t>educational behaviour change intervention</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>An information content entity that is a standard against which something can be judged, decided or evaluated.</t>
+          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>A standard that can be used to evaluate something.</t>
+          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Information content entity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -2386,9 +2390,17 @@
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q26" s="2" t="inlineStr"/>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
       <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>This class separates education from training even though in common discourse training is often included within education.</t>
+        </is>
+      </c>
       <c r="T26" s="2" t="inlineStr"/>
       <c r="U26" s="2" t="inlineStr">
         <is>
@@ -2409,34 +2421,34 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037017</t>
+          <t>BCIO:037018</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>educational behaviour change intervention</t>
+          <t>effectiveness intervention criterion</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves informing or explaining in order to increase knowledge or understanding.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>Informing or explaining things to increase knowledge or understanding relating to a behaviour.</t>
+          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -2457,13 +2469,13 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>This class separates education from training even though in common discourse training is often included within education.</t>
+          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr"/>
@@ -2486,34 +2498,34 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037018</t>
+          <t>BCIO:037019</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>effectiveness intervention criterion</t>
+          <t>enablement behaviour change inervention</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated leads to desired outcomes and is worth the financial cost.</t>
+          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention achieves or is likely to achieve a desired outcome and provides value for money.</t>
+          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -2534,13 +2546,13 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>enablement</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>This includes two closely related criteria: effectiveness and cost-effectiveness. Effectiveness can be in relation to any desired outcome so the outcome needs to be specified. It may be a behavioural outcome such as smoking cessation or a health outcome such as quality adjusted life years. Cost-effectiveness similarly requires the outcome to be specified and operationalised.</t>
+          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr"/>
@@ -2563,39 +2575,39 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037019</t>
+          <t>BCIO:0050001</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>enablement behaviour change inervention</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves providing support, or material or financial resources to influence behavioural capability or opportunity.</t>
+          <t>A disposition inhering in an environmental system.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Providing physical or social support, or material or financial resources that make it possible or easier to enact a behaviour.</t>
+          <t>A disposition of an environment.</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
@@ -2604,22 +2616,10 @@
       <c r="M29" s="2" t="inlineStr"/>
       <c r="N29" s="2" t="inlineStr"/>
       <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>enablement</t>
-        </is>
-      </c>
+      <c r="P29" s="2" t="inlineStr"/>
+      <c r="Q29" s="2" t="inlineStr"/>
       <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes performing surgery, providing pharmaceuticals, funding, social support, forms of counselling, and financial and material resources. </t>
-        </is>
-      </c>
+      <c r="S29" s="2" t="inlineStr"/>
       <c r="T29" s="2" t="inlineStr"/>
       <c r="U29" s="2" t="inlineStr">
         <is>
@@ -2627,7 +2627,11 @@
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr"/>
-      <c r="W29" s="2" t="inlineStr"/>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X29" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2640,39 +2644,39 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050001</t>
+          <t>BCIO:037020</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>environmental restructuring behaviour change intervention</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A disposition inhering in an environmental system.</t>
+          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>A disposition of an environment.</t>
+          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Setting</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
@@ -2681,10 +2685,22 @@
       <c r="M30" s="2" t="inlineStr"/>
       <c r="N30" s="2" t="inlineStr"/>
       <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr"/>
-      <c r="Q30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>environmental restructuring</t>
+        </is>
+      </c>
       <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
+        </is>
+      </c>
       <c r="T30" s="2" t="inlineStr"/>
       <c r="U30" s="2" t="inlineStr">
         <is>
@@ -2692,11 +2708,7 @@
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr"/>
-      <c r="W30" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W30" s="2" t="inlineStr"/>
       <c r="X30" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -2709,34 +2721,34 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037020</t>
+          <t>BCIO:037021</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>environmental restructuring behaviour change intervention</t>
+          <t>equity intervention criterion</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves changing the social or physical environment in order to influence opportunity.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Shaping the physical or social world inhabited by a person to make a behaviour easier or harder, or appear more or less normal, or to add or remove prompts.</t>
+          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2757,13 +2769,13 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>environmental restructuring</t>
+          <t>equity</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr"/>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>This includes making changes to the micro-environment such as changing portion sizes, the macro-environment such as city layout, social norms and stimuli that can act as cues to action.</t>
+          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr"/>
@@ -2786,39 +2798,43 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037021</t>
+          <t>BCIO:042000</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>equity intervention criterion</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has an influence on health, social, material or financial disparities in a population.</t>
+          <t>Human activity that is individual human behaviour or population behaviour</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention affects or is likely to affect inequalities.</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
+          <t>The actions of people, either as individuals or groups or populations.</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>'individual human behaviour' or 'population behaviour'</t>
+        </is>
+      </c>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>human activity</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
@@ -2829,20 +2845,16 @@
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
+          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>equity</t>
+          <t>behaviour</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>This covers all aspect of disadvantage, many of which are closely related to each other.</t>
-        </is>
-      </c>
+      <c r="S32" s="2" t="inlineStr"/>
       <c r="T32" s="2" t="inlineStr"/>
       <c r="U32" s="2" t="inlineStr">
         <is>
@@ -2863,33 +2875,29 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>BCIO:042000</t>
+          <t>BCIO:037022</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>incentivisation  behaviour change intervention</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Human activity that is individual human behaviour or population behaviour</t>
+          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>The actions of people, either as individuals or groups or populations.</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>'individual human behaviour' or 'population behaviour'</t>
-        </is>
-      </c>
+          <t>Applying rewards to a behaviour.</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>human activity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -2899,7 +2907,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
@@ -2910,16 +2918,20 @@
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>Add logical definition to BCIO if not there already and revise definition to include parent class as per our guidelines.</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>behaviour</t>
+          <t>incentivisation</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
+        </is>
+      </c>
       <c r="T33" s="2" t="inlineStr"/>
       <c r="U33" s="2" t="inlineStr">
         <is>
@@ -2940,29 +2952,29 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037022</t>
+          <t>BCIO:040000</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>incentivisation  behaviour change intervention</t>
+          <t>individual human activity</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves applying a positive contingency to a behaviour in order to influence motivation, or informing a person that one intends to do so.</t>
+          <t>A process that is produced by a person.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Applying rewards to a behaviour.</t>
+          <t>Something that someone does, whether it be mental or physical.</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -2972,7 +2984,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr"/>
@@ -2981,30 +2993,18 @@
       <c r="M34" s="2" t="inlineStr"/>
       <c r="N34" s="2" t="inlineStr"/>
       <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>incentivisation</t>
-        </is>
-      </c>
+      <c r="P34" s="2" t="inlineStr"/>
+      <c r="Q34" s="2" t="inlineStr"/>
       <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
-        </is>
-      </c>
+      <c r="S34" s="2" t="inlineStr"/>
       <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="U34" s="2" t="inlineStr"/>
       <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr"/>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X34" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -3940,7 +3940,7 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Population human activity that is an aggregate of individual human behaviours of members of a population.</t>
+          <t>A process that is an aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
@@ -3952,7 +3952,7 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>population human activity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
@@ -3986,7 +3986,11 @@
         </is>
       </c>
       <c r="V48" s="2" t="inlineStr"/>
-      <c r="W48" s="2" t="inlineStr"/>
+      <c r="W48" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X48" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -2808,7 +2808,7 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Human activity that is individual human behaviour or population behaviour</t>
+          <t>Individual human behaviour or population behaviour.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -2824,7 +2824,7 @@
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>human activity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -2862,7 +2862,11 @@
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr"/>
-      <c r="W32" s="2" t="inlineStr"/>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X32" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -3871,7 +3871,7 @@
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>An opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
@@ -3883,7 +3883,7 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3921,7 +3921,11 @@
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr"/>
-      <c r="W47" s="2" t="inlineStr"/>
+      <c r="W47" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X47" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4540,7 +4544,7 @@
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -4574,7 +4578,11 @@
         </is>
       </c>
       <c r="V56" s="2" t="inlineStr"/>
-      <c r="W56" s="2" t="inlineStr"/>
+      <c r="W56" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X56" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:AA60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3088,106 +3088,106 @@
       <c r="AA35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037000</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>intervention</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>A planned process that has the aim of influencing an outcome.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>Something done to influence an outcome.</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>planned process</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr"/>
-      <c r="Q36" s="2" t="inlineStr"/>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr"/>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V36" s="2" t="inlineStr"/>
-      <c r="W36" s="2" t="inlineStr"/>
-      <c r="X36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y36" s="2" t="inlineStr"/>
-      <c r="Z36" s="2" t="inlineStr"/>
-      <c r="AA36" s="2" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IAO:0000030</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A generically dependent continuant that is about some thing.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>An item of information about something.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Upper level</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>BCIO:039000</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>intervention outcome</t>
+          <t>intervention</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A process that is influenced by an intervention.</t>
+          <t>A planned process that has the aim of influencing an outcome.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Something done to influence an outcome.</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr"/>
@@ -3197,11 +3197,7 @@
       <c r="N37" s="2" t="inlineStr"/>
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr"/>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>outcome</t>
-        </is>
-      </c>
+      <c r="Q37" s="2" t="inlineStr"/>
       <c r="R37" s="2" t="inlineStr"/>
       <c r="S37" s="2" t="inlineStr"/>
       <c r="T37" s="2" t="inlineStr"/>
@@ -3224,39 +3220,39 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037023</t>
+          <t>BCIO:039000</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>intervention stakeholder</t>
+          <t>intervention outcome</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+          <t>A process that is influenced by an intervention.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>Any person or organisation with a legitimate interest in an intervention</t>
+          <t>Something that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
@@ -3265,14 +3261,10 @@
       <c r="M38" s="2" t="inlineStr"/>
       <c r="N38" s="2" t="inlineStr"/>
       <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
+      <c r="P38" s="2" t="inlineStr"/>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>stakeholder</t>
+          <t>outcome</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr"/>
@@ -3295,177 +3287,173 @@
       <c r="AA38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037023</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>intervention stakeholder</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>A social role of a person, group, population or organisation in relation to an intervention that involves having an interest in that intervention by virtue of potentially being exposed to it, indirectly affected by it, involved in developing or delivering it, or funding it.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Any person or organisation with a legitimate interest in an intervention</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>social role</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>stakeholder</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr"/>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr"/>
+      <c r="W39" s="2" t="inlineStr"/>
+      <c r="X39" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y39" s="2" t="inlineStr"/>
+      <c r="Z39" s="2" t="inlineStr"/>
+      <c r="AA39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>A bodily process that is of a type such that it can of itself be conscious.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>A brain process that involves conscious exerience.</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
         <is>
           <t>MF:0000020 MF definition should be tidied up to confirm to recommended structure and perhaps parent is better as brain process?</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr">
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:037024</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>modelling behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>Providing an example for people to imitate, learn from or aspire to.</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>modelling</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V40" s="2" t="inlineStr"/>
-      <c r="W40" s="2" t="inlineStr"/>
-      <c r="X40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y40" s="2" t="inlineStr"/>
-      <c r="Z40" s="2" t="inlineStr"/>
-      <c r="AA40" s="2" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:037024</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>modelling behaviour change intervention</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour.</t>
+          <t>A behaviour change intervention that involves providing an example for people to imitate in order to influence capability, opportunity or motivation.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
+          <t>Providing an example for people to imitate, learn from or aspire to.</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -3475,7 +3463,7 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
@@ -3486,12 +3474,20 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006133 in MoA to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q41" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>modelling</t>
+        </is>
+      </c>
       <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes providing an example that can influence behaviour directly through pure imitation, or through capability. It also includes providing an example to act as a basis for changing motivation by vicarious learning of reinforcement contingencies, and through identity change by acting as an aspirational model. </t>
+        </is>
+      </c>
       <c r="T41" s="2" t="inlineStr"/>
       <c r="U41" s="2" t="inlineStr">
         <is>
@@ -3512,39 +3508,39 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037025</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>negative behavioural contingency</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>A process in which an undesirable event results from a behaviour.</t>
+          <t>A psychological process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a punishment or cost.</t>
+          <t>A psychological process that energises and directs behaviour, including conscious decision making, habitual and instinctive responding and responding to emotions and drives.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
+          <t>psychological process</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
@@ -3555,7 +3551,7 @@
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:006133 in MoA to correct the definition</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr"/>
@@ -3581,29 +3577,29 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>BCIO:002000</t>
+          <t>BCIO:037025</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>outcome behaviour</t>
+          <t>negative behavioural contingency</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Human behaviour that is an intervention outcome.</t>
+          <t>A process in which an undesirable event results from a behaviour.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
+          <t>Linking a behaviour to a punishment or cost.</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>human behaviour</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
@@ -3613,7 +3609,7 @@
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Upper level</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
@@ -3622,7 +3618,11 @@
       <c r="M43" s="2" t="inlineStr"/>
       <c r="N43" s="2" t="inlineStr"/>
       <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
       <c r="Q43" s="2" t="inlineStr"/>
       <c r="R43" s="2" t="inlineStr"/>
       <c r="S43" s="2" t="inlineStr"/>
@@ -3646,39 +3646,39 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050002</t>
+          <t>BCIO:002000</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>personal disposition</t>
+          <t>outcome behaviour</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A disposition that inheres in a person.</t>
+          <t>Human behaviour that is an intervention outcome.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>A disposition of a person.</t>
+          <t>A behaviour that happens, does not happen or happens differently as a result of an intervention.</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>human behaviour</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Upper level</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
@@ -3698,11 +3698,7 @@
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr"/>
-      <c r="W44" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W44" s="2" t="inlineStr"/>
       <c r="X44" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3715,39 +3711,39 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037026</t>
+          <t>BCIO:0050002</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>persuasive behaviour change intervention</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
+          <t>A disposition that inheres in a person.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
+          <t>A disposition of a person.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
@@ -3756,16 +3752,8 @@
       <c r="M45" s="2" t="inlineStr"/>
       <c r="N45" s="2" t="inlineStr"/>
       <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr">
-        <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>persuasion</t>
-        </is>
-      </c>
+      <c r="P45" s="2" t="inlineStr"/>
+      <c r="Q45" s="2" t="inlineStr"/>
       <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr"/>
       <c r="T45" s="2" t="inlineStr"/>
@@ -3775,7 +3763,11 @@
         </is>
       </c>
       <c r="V45" s="2" t="inlineStr"/>
-      <c r="W45" s="2" t="inlineStr"/>
+      <c r="W45" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X45" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3788,39 +3780,39 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:037026</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>persuasive behaviour change intervention</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A behaviour change intervention that involves using communication or imagery in order to influence feelings of desire.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>A person's abilities arising from their physique and bodily functioning.</t>
+          <t>Using words and images to get people to feel liking or disliking for something in order to influence behaviour.</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J46" s="2" t="inlineStr"/>
@@ -3831,16 +3823,16 @@
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>persuasion</t>
+        </is>
+      </c>
       <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
-        </is>
-      </c>
+      <c r="S46" s="2" t="inlineStr"/>
       <c r="T46" s="2" t="inlineStr"/>
       <c r="U46" s="2" t="inlineStr">
         <is>
@@ -3861,29 +3853,29 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
+          <t>A person's abilities arising from their physique and bodily functioning.</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
@@ -3904,14 +3896,14 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006089 in MoA?</t>
+          <t>In former version of COM-B sensory capability was included in physical capability but it is better contained with psychological capability because it is involves experience. Amend BCIO:006009 in MoA ontology to correct the definition</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr"/>
       <c r="R47" s="2" t="inlineStr"/>
       <c r="S47" s="2" t="inlineStr">
         <is>
-          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+          <t>This includes includes physical strength, stamina, sensori-motor co-ordination, and balance.</t>
         </is>
       </c>
       <c r="T47" s="2" t="inlineStr"/>
@@ -3921,11 +3913,7 @@
         </is>
       </c>
       <c r="V47" s="2" t="inlineStr"/>
-      <c r="W47" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W47" s="2" t="inlineStr"/>
       <c r="X47" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3938,39 +3926,39 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:034000</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>population behaviour</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A process that is an aggregate of individual human behaviours of members of a population.</t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>The actions of groups of people or populations.</t>
+          <t>A person's opportunity to enact a behaviour that arises from objects and events in their environment, the space they inhabit, the time available or the material and financial resources available to them.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
         <is>
-          <t>Behaviour</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J48" s="2" t="inlineStr"/>
@@ -3981,12 +3969,16 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
+          <t>Amend BCIO:006089 in MoA?</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr"/>
       <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>Physical opportunity and social opportunity are disjoint classes.</t>
+        </is>
+      </c>
       <c r="T48" s="2" t="inlineStr"/>
       <c r="U48" s="2" t="inlineStr">
         <is>
@@ -4006,31 +3998,27 @@
       </c>
       <c r="Y48" s="2" t="inlineStr"/>
       <c r="Z48" s="2" t="inlineStr"/>
-      <c r="AA48" s="2" t="inlineStr">
-        <is>
-          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
-        </is>
-      </c>
+      <c r="AA48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037027</t>
+          <t>BCIO:034000</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>positive behavioural contingency</t>
+          <t>population behaviour</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A process in which a desirable event follows from a behaviour.</t>
+          <t>A process that is an aggregate of individual human behaviours of members of a population.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>Linking a behaviour to a reward</t>
+          <t>The actions of groups of people or populations.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
@@ -4047,7 +4035,7 @@
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Behaviour</t>
         </is>
       </c>
       <c r="J49" s="2" t="inlineStr"/>
@@ -4058,7 +4046,7 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA ontology</t>
+          <t>Amend BCIO:034000 behaviour ontology to reflect this definition?</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr"/>
@@ -4071,7 +4059,11 @@
         </is>
       </c>
       <c r="V49" s="2" t="inlineStr"/>
-      <c r="W49" s="2" t="inlineStr"/>
+      <c r="W49" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X49" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4079,39 +4071,43 @@
       </c>
       <c r="Y49" s="2" t="inlineStr"/>
       <c r="Z49" s="2" t="inlineStr"/>
-      <c r="AA49" s="2" t="inlineStr"/>
+      <c r="AA49" s="2" t="inlineStr">
+        <is>
+          <t>The definition in BCIO does not include the parent class so this has been added. We need to consider changing the BCIO version.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037028</t>
+          <t>BCIO:037027</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>practicability intervention criterion</t>
+          <t>positive behavioural contingency</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
+          <t>A process in which a desirable event follows from a behaviour.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
+          <t>Linking a behaviour to a reward</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
@@ -4127,20 +4123,12 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>practicability</t>
-        </is>
-      </c>
+          <t>Add to MoA ontology</t>
+        </is>
+      </c>
+      <c r="Q50" s="2" t="inlineStr"/>
       <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
-        </is>
-      </c>
+      <c r="S50" s="2" t="inlineStr"/>
       <c r="T50" s="2" t="inlineStr"/>
       <c r="U50" s="2" t="inlineStr">
         <is>
@@ -4161,39 +4149,39 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037029</t>
+          <t>BCIO:037028</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>psychological behavioural capability</t>
+          <t>practicability intervention criterion</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
+          <t>An APEASE criterion that is the extent to which what is being evaluated is achieved as specified and at the scale intended.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
+          <t>How far an intervention or part of an intervention can or is likely to be able to be delivered as planned and at the scale intended.</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>APEASE criterion</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="I51" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J51" s="2" t="inlineStr"/>
@@ -4204,16 +4192,20 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF as distinct from mental capability?</t>
+          <t>Add to intervention ontology</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
         <is>
-          <t>psychological capability</t>
+          <t>practicability</t>
         </is>
       </c>
       <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>This stems from a range of related dimensions including to the material and human resources available to deliver the intervention (e.g. are there enough skilled people to deliver it), the time available.</t>
+        </is>
+      </c>
       <c r="T51" s="2" t="inlineStr"/>
       <c r="U51" s="2" t="inlineStr">
         <is>
@@ -4234,34 +4226,34 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037030</t>
+          <t>BCIO:037029</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>psychological process</t>
+          <t>psychological behavioural capability</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
+          <t>A personal capability that necessarily includes a psychological process in its realisation.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>A process underpinning experience or generation of behaviour.</t>
+          <t>A person's ability to peform a behaviour arising from their psychological functioning.</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>brain process</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I52" s="2" t="inlineStr">
@@ -4277,10 +4269,14 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA and MF?</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr"/>
+          <t>Add to MoA and MF as distinct from mental capability?</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>psychological capability</t>
+        </is>
+      </c>
       <c r="R52" s="2" t="inlineStr"/>
       <c r="S52" s="2" t="inlineStr"/>
       <c r="T52" s="2" t="inlineStr"/>
@@ -4303,29 +4299,29 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037031</t>
+          <t>BCIO:037030</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>reflective motivation</t>
+          <t>psychological process</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A motivation that involves reflective thinking.</t>
+          <t>A brain process that constitutes or results in experience or results in behaviour.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>Psychological processes of conscious planning and decision making.</t>
+          <t>A process underpinning experience or generation of behaviour.</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>brain process</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -4346,16 +4342,12 @@
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>Add to MoA</t>
+          <t>Add to MoA and MF?</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr"/>
       <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
-        </is>
-      </c>
+      <c r="S53" s="2" t="inlineStr"/>
       <c r="T53" s="2" t="inlineStr"/>
       <c r="U53" s="2" t="inlineStr">
         <is>
@@ -4376,29 +4368,29 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:037031</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>reflective motivation</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
+          <t>A motivation that involves reflective thinking.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>Conscious reasoning, estimation, calculation or decision making.</t>
+          <t>Psychological processes of conscious planning and decision making.</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
@@ -4419,12 +4411,16 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>Amend BCIO:006112 to reflect improved definition?</t>
+          <t>Add to MoA</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr"/>
       <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>This includes any thought process that relates to conscious decision making and evaluation of what is better or worse in ethical, personal or functional terms.</t>
+        </is>
+      </c>
       <c r="T54" s="2" t="inlineStr"/>
       <c r="U54" s="2" t="inlineStr">
         <is>
@@ -4445,29 +4441,29 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037032</t>
+          <t>BCIO:006112</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>restriction behaviour change intervention</t>
+          <t>reflective thinking</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
+          <t>Thinking that involves reasoning, analysis, calculation, estimation or decision making involving propositional or symbolic representations.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Using formal social rules to set boundaries for a behaviour.</t>
+          <t>Conscious reasoning, estimation, calculation or decision making.</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>behaviour change intervention</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -4477,7 +4473,7 @@
       </c>
       <c r="I55" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J55" s="2" t="inlineStr"/>
@@ -4488,20 +4484,12 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>restriction</t>
-        </is>
-      </c>
+          <t>Amend BCIO:006112 to reflect improved definition?</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr"/>
       <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>This involves what people should do as well as what they are not allowed to do.</t>
-        </is>
-      </c>
+      <c r="S55" s="2" t="inlineStr"/>
       <c r="T55" s="2" t="inlineStr"/>
       <c r="U55" s="2" t="inlineStr">
         <is>
@@ -4522,39 +4510,39 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:037032</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>restriction behaviour change intervention</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A behaviour change intervention that involves using social rules to set limits around behaviour.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+          <t>Using formal social rules to set boundaries for a behaviour.</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behaviour change intervention</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process</t>
         </is>
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>Mechanism of action</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="J56" s="2" t="inlineStr"/>
@@ -4565,12 +4553,20 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>Amend in MoA?</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr"/>
+          <t>Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>restriction</t>
+        </is>
+      </c>
       <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr"/>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>This involves what people should do as well as what they are not allowed to do.</t>
+        </is>
+      </c>
       <c r="T56" s="2" t="inlineStr"/>
       <c r="U56" s="2" t="inlineStr">
         <is>
@@ -4578,11 +4574,7 @@
         </is>
       </c>
       <c r="V56" s="2" t="inlineStr"/>
-      <c r="W56" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="W56" s="2" t="inlineStr"/>
       <c r="X56" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4595,39 +4587,39 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:037033</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>spill-over effect intervention criterion</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+          <t>A person's opportunity to enact a behaviour relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>APEASE criterion</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>Intervention</t>
+          <t>Mechanism of action</t>
         </is>
       </c>
       <c r="J57" s="2" t="inlineStr"/>
@@ -4638,20 +4630,12 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
-        </is>
-      </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>side-effect, spill-over effect, unintended consequence</t>
-        </is>
-      </c>
+          <t>Amend in MoA?</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr"/>
       <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
-        </is>
-      </c>
+      <c r="S57" s="2" t="inlineStr"/>
       <c r="T57" s="2" t="inlineStr"/>
       <c r="U57" s="2" t="inlineStr">
         <is>
@@ -4659,7 +4643,11 @@
         </is>
       </c>
       <c r="V57" s="2" t="inlineStr"/>
-      <c r="W57" s="2" t="inlineStr"/>
+      <c r="W57" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X57" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4670,142 +4658,219 @@
       <c r="AA57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:037033</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>spill-over effect intervention criterion</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>An APEASE criterion that is the extent to which what is being evaluated has one or more positive or negative effects other than those intended.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>How far an intervention or part of an intervention has or is likely to have unintended positive or negative effects.</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>APEASE criterion</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>At first sight it may seem redundant in the definition to specify positive and negative but the purpose is to include only outcomes that have some kind of value, not every single outcome. Add to intervention ontology</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>side-effect, spill-over effect, unintended consequence</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">This includes both positive and negative or adverse effects. In principle this includes effects on equity but these are important enough to be singled out as a separate criterion. </t>
+        </is>
+      </c>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V58" s="2" t="inlineStr"/>
+      <c r="W58" s="2" t="inlineStr"/>
+      <c r="X58" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y58" s="2" t="inlineStr"/>
+      <c r="Z58" s="2" t="inlineStr"/>
+      <c r="AA58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Reasoning with words, symbols or images.</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>BCIO:0050000</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>training behaviour change inervention</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>A behaviour change intervention  that involves using demonstration, feedback or practice to improve physical or psychological skills.</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
         <is>
           <t>Using demonstration, feedback, and practice to improve physical or psychological skills such as ability to analyse information and plan on the basis of that information.</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>behaviour change intervention</t>
         </is>
       </c>
-      <c r="H59" s="2" t="inlineStr">
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I59" s="2" t="inlineStr">
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr">
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr">
         <is>
           <t>Add to intervention ontology</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="inlineStr">
+      <c r="Q60" s="2" t="inlineStr">
         <is>
           <t>training</t>
         </is>
       </c>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr"/>
-      <c r="T59" s="2" t="inlineStr"/>
-      <c r="U59" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V59" s="2" t="inlineStr"/>
-      <c r="W59" s="2" t="inlineStr"/>
-      <c r="X59" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y59" s="2" t="inlineStr"/>
-      <c r="Z59" s="2" t="inlineStr"/>
-      <c r="AA59" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr"/>
+      <c r="T60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V60" s="2" t="inlineStr"/>
+      <c r="W60" s="2" t="inlineStr"/>
+      <c r="X60" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Y60" s="2" t="inlineStr"/>
+      <c r="Z60" s="2" t="inlineStr"/>
+      <c r="AA60" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -2297,7 +2297,7 @@
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Information content entity</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -2331,7 +2331,11 @@
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr"/>
-      <c r="W25" s="2" t="inlineStr"/>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X25" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>An attribute of a BCI delivery that is the physical or informational medium through which a BCI is provided.</t>
+          <t>A process that is the physical or informational medium through which a BCI is provided.</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       <c r="F11" s="2" t="inlineStr"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1313,7 +1313,11 @@
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr"/>
-      <c r="W11" s="2" t="inlineStr"/>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2962,69 +2968,69 @@
       <c r="AA33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>BCIO:040000</t>
         </is>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>individual human activity</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>A process that is produced by a person.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>Something that someone does, whether it be mental or physical.</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H34" s="2" t="inlineStr">
+      <c r="H34" s="3" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I34" s="2" t="inlineStr">
+      <c r="I34" s="3" t="inlineStr">
         <is>
           <t>Upper level</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr"/>
-      <c r="Q34" s="2" t="inlineStr"/>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr"/>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr"/>
-      <c r="W34" s="2" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr"/>
+      <c r="K34" s="3" t="inlineStr"/>
+      <c r="L34" s="3" t="inlineStr"/>
+      <c r="M34" s="3" t="inlineStr"/>
+      <c r="N34" s="3" t="inlineStr"/>
+      <c r="O34" s="3" t="inlineStr"/>
+      <c r="P34" s="3" t="inlineStr"/>
+      <c r="Q34" s="3" t="inlineStr"/>
+      <c r="R34" s="3" t="inlineStr"/>
+      <c r="S34" s="3" t="inlineStr"/>
+      <c r="T34" s="3" t="inlineStr"/>
+      <c r="U34" s="3" t="inlineStr"/>
+      <c r="V34" s="3" t="inlineStr"/>
+      <c r="W34" s="3" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="X34" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Y34" s="2" t="inlineStr"/>
-      <c r="Z34" s="2" t="inlineStr"/>
-      <c r="AA34" s="2" t="inlineStr"/>
+      <c r="X34" s="3" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="Y34" s="3" t="inlineStr"/>
+      <c r="Z34" s="3" t="inlineStr"/>
+      <c r="AA34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -3051,7 +3057,7 @@
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>individual human activity</t>
+          <t>process</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -3085,7 +3091,11 @@
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr"/>
-      <c r="W35" s="2" t="inlineStr"/>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X35" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3673,7 +3683,11 @@
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>'human behaviour' and 'intervention outcome'</t>
+        </is>
+      </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
           <t>human behaviour</t>
@@ -3706,7 +3720,11 @@
         </is>
       </c>
       <c r="V44" s="2" t="inlineStr"/>
-      <c r="W44" s="2" t="inlineStr"/>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="X44" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\ontologies\BCW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE32E3F-A48C-4099-9991-E93314D67C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12426F60-0523-4424-81B5-062B77A2FB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="359">
   <si>
     <t>ID</t>
   </si>
@@ -697,24 +697,9 @@
     <t>This includes use of any kind of reward, including financial, social and material. It also includes prevention or cessationl of naturally occuring negative experiences.</t>
   </si>
   <si>
-    <t>BCIO:040000</t>
-  </si>
-  <si>
-    <t>individual human activity</t>
-  </si>
-  <si>
-    <t>A process that is produced by a person.</t>
-  </si>
-  <si>
-    <t>Something that someone does, whether it be mental or physical.</t>
-  </si>
-  <si>
     <t>Upper level</t>
   </si>
   <si>
-    <t>Obsolete</t>
-  </si>
-  <si>
     <t>BCIO:036000</t>
   </si>
   <si>
@@ -1109,6 +1094,9 @@
   </si>
   <si>
     <t>REL 'can influence'</t>
+  </si>
+  <si>
+    <t>REL 'can be a standard for evaluation of'</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1117,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1139,11 +1127,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2F4F4F"/>
       </patternFill>
     </fill>
   </fills>
@@ -1159,11 +1142,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1466,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
@@ -1474,7 +1456,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1506,64 +1488,67 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -1595,28 +1580,29 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1648,32 +1634,33 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2" t="s">
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA3" s="2"/>
+      <c r="AA3" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1705,30 +1692,31 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2" t="s">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4" s="2"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -1760,28 +1748,29 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>60</v>
       </c>
@@ -1813,30 +1802,31 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="2"/>
+      <c r="V6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6" s="2"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>67</v>
       </c>
@@ -1868,30 +1858,31 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="2"/>
+      <c r="V7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7" s="2"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>73</v>
       </c>
@@ -1923,30 +1914,31 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="2"/>
+      <c r="V8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8" s="2"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1978,30 +1970,31 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
+      <c r="U9" s="2"/>
+      <c r="V9" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9" s="2"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>85</v>
       </c>
@@ -2034,25 +2027,26 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="2"/>
+      <c r="T10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10" s="2"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>91</v>
       </c>
@@ -2085,29 +2079,30 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="2"/>
+      <c r="T11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
+      <c r="U11" s="2"/>
+      <c r="V11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2" t="s">
+      <c r="W11" s="2"/>
+      <c r="X11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA11" s="2"/>
+      <c r="AA11" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD11" s="2"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>97</v>
       </c>
@@ -2139,28 +2134,29 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
-      <c r="W12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD12" s="2"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
@@ -2192,30 +2188,31 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2" t="s">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD13" s="2"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>108</v>
       </c>
@@ -2247,28 +2244,29 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
-      <c r="W14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD14" s="2"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>113</v>
       </c>
@@ -2300,28 +2298,29 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="2"/>
+      <c r="S15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
-      <c r="W15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD15" s="2"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>118</v>
       </c>
@@ -2354,25 +2353,26 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="2"/>
+      <c r="T16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16" s="2"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -2394,26 +2394,26 @@
       <c r="I17" t="s">
         <v>57</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>129</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>130</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>131</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>132</v>
       </c>
-      <c r="W17" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>134</v>
       </c>
@@ -2445,28 +2445,29 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2" t="s">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="T18" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
-      <c r="W18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD18" s="2"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>141</v>
       </c>
@@ -2498,30 +2499,31 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2" t="s">
+      <c r="R19" s="2"/>
+      <c r="S19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
-      <c r="W19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2" t="s">
+      <c r="W19" s="2"/>
+      <c r="X19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD19" s="2"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -2543,17 +2545,17 @@
       <c r="I20" t="s">
         <v>57</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>44</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>152</v>
       </c>
@@ -2590,21 +2592,22 @@
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
-      <c r="W21" s="2">
+      <c r="W21" s="2"/>
+      <c r="X21" s="2">
         <v>0</v>
       </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2" t="s">
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA21" s="2"/>
+      <c r="AA21" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD21" s="2"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>156</v>
       </c>
@@ -2636,26 +2639,27 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD22" s="2"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>161</v>
       </c>
@@ -2687,30 +2691,31 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2" t="s">
+      <c r="R23" s="2"/>
+      <c r="S23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="T23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="U23" s="2"/>
+      <c r="V23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD23" s="2"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>167</v>
       </c>
@@ -2732,20 +2737,20 @@
       <c r="I24" t="s">
         <v>57</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>172</v>
       </c>
-      <c r="W24" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="X24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z24" t="s">
         <v>44</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>173</v>
       </c>
@@ -2777,28 +2782,29 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2" t="s">
+      <c r="W25" s="2"/>
+      <c r="X25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA25" s="2"/>
+      <c r="AA25" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD25" s="2"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>177</v>
       </c>
@@ -2830,30 +2836,31 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2" t="s">
+      <c r="R26" s="2"/>
+      <c r="S26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="T26" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="2"/>
+      <c r="V26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD26" s="2"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>183</v>
       </c>
@@ -2885,30 +2892,31 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="2"/>
+      <c r="S27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="T27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2" t="s">
+      <c r="U27" s="2"/>
+      <c r="V27" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD27" s="2"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>189</v>
       </c>
@@ -2940,30 +2948,31 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="2"/>
+      <c r="S28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2" t="s">
+      <c r="U28" s="2"/>
+      <c r="V28" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD28" s="2"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>195</v>
       </c>
@@ -3000,21 +3009,22 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
-      <c r="W29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2" t="s">
+      <c r="W29" s="2"/>
+      <c r="X29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA29" s="2"/>
+      <c r="AA29" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD29" s="2"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>199</v>
       </c>
@@ -3046,30 +3056,31 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="2" t="s">
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="T30" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2" t="s">
+      <c r="U30" s="2"/>
+      <c r="V30" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD30" s="2"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>205</v>
       </c>
@@ -3101,30 +3112,31 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-      <c r="R31" s="2" t="s">
+      <c r="R31" s="2"/>
+      <c r="S31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="T31" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2" t="s">
+      <c r="U31" s="2"/>
+      <c r="V31" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y31" s="2"/>
-      <c r="Z31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD31" s="2"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>211</v>
       </c>
@@ -3158,30 +3170,31 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="2" t="s">
+      <c r="R32" s="2"/>
+      <c r="S32" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="T32" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
-      <c r="W32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2" t="s">
+      <c r="W32" s="2"/>
+      <c r="X32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA32" s="2"/>
+      <c r="AA32" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD32" s="2"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>219</v>
       </c>
@@ -3213,183 +3226,186 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="2" t="s">
+      <c r="R33" s="2"/>
+      <c r="S33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2" t="s">
+      <c r="U33" s="2"/>
+      <c r="V33" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="AD33" s="2"/>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3" t="s">
+      <c r="Z35" t="s">
         <v>44</v>
       </c>
-      <c r="Z34" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="AA35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="D36" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B36" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B37" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -3401,22 +3417,25 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="T37" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
-      <c r="W37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD37" s="2"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>241</v>
       </c>
@@ -3432,13 +3451,13 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -3450,114 +3469,120 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="T38" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
-      <c r="W38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="AD38" s="2"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>248</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" t="s">
         <v>249</v>
       </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
+      <c r="D39" t="s">
         <v>250</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="G39" t="s">
+        <v>153</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39" t="s">
         <v>251</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="X39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2" t="s">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S39" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>253</v>
-      </c>
-      <c r="B40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" t="s">
-        <v>254</v>
-      </c>
-      <c r="D40" t="s">
-        <v>255</v>
-      </c>
-      <c r="G40" t="s">
-        <v>153</v>
-      </c>
-      <c r="H40" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" t="s">
-        <v>57</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="T40" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="W40" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U40" s="2"/>
+      <c r="V40" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>259</v>
@@ -3568,13 +3593,13 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -3584,52 +3609,49 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="R41" s="2"/>
       <c r="S41" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="T41" s="2"/>
-      <c r="U41" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="U41" s="2"/>
       <c r="V41" s="2"/>
-      <c r="W41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD41" s="2"/>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -3639,26 +3661,27 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-      <c r="R42" s="2" t="s">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
-      <c r="W42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD42" s="2"/>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>268</v>
       </c>
@@ -3672,15 +3695,17 @@
         <v>271</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>272</v>
+      </c>
       <c r="G43" s="2" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -3690,50 +3715,49 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-      <c r="R43" s="2" t="s">
-        <v>272</v>
-      </c>
+      <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA43" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD43" s="2"/>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>229</v>
+        <v>57</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -3748,43 +3772,44 @@
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
-      <c r="W44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2" t="s">
+      <c r="W44" s="2"/>
+      <c r="X44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA44" s="2"/>
+      <c r="AA44" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD44" s="2"/>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -3795,25 +3820,28 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+      <c r="S45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>280</v>
+      </c>
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
-      <c r="W45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD45" s="2"/>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>281</v>
       </c>
@@ -3829,13 +3857,13 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -3845,44 +3873,45 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-      <c r="R46" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="R46" s="2"/>
       <c r="S46" s="2" t="s">
         <v>285</v>
       </c>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X46" s="2"/>
+      <c r="V46" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD46" s="2"/>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>128</v>
@@ -3898,50 +3927,53 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-      <c r="R47" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="S47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2" t="s">
+        <v>291</v>
+      </c>
       <c r="T47" s="2"/>
-      <c r="U47" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA47" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD47" s="2"/>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
@@ -3951,41 +3983,42 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-      <c r="R48" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="S48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="T48" s="2"/>
-      <c r="U48" s="2" t="s">
-        <v>297</v>
-      </c>
+      <c r="U48" s="2"/>
       <c r="V48" s="2"/>
-      <c r="W48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2" t="s">
+      <c r="W48" s="2"/>
+      <c r="X48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Z48" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA48" s="2"/>
+      <c r="AA48" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD48" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -3996,7 +4029,7 @@
         <v>56</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -4006,49 +4039,46 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="S49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
-      <c r="W49" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB49" s="2"/>
-      <c r="AC49" s="2" t="s">
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>33</v>
@@ -4061,48 +4091,53 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-      <c r="R50" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X50" s="2"/>
+      <c r="V50" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y50" s="2"/>
-      <c r="Z50" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD50" s="2"/>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -4112,35 +4147,34 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-      <c r="R51" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="R51" s="2"/>
       <c r="S51" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="T51" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="U51" s="2"/>
       <c r="V51" s="2"/>
-      <c r="W51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y51" s="2"/>
-      <c r="Z51" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD51" s="2"/>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>316</v>
@@ -4151,10 +4185,10 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>57</v>
@@ -4167,44 +4201,43 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-      <c r="R52" s="2" t="s">
-        <v>318</v>
-      </c>
+      <c r="R52" s="2"/>
       <c r="S52" s="2" t="s">
-        <v>319</v>
+        <v>160</v>
       </c>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
-      <c r="W52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y52" s="2"/>
-      <c r="Z52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD52" s="2"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>56</v>
@@ -4220,42 +4253,45 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-      <c r="R53" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="S53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X53" s="2"/>
+      <c r="V53" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y53" s="2"/>
-      <c r="Z53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD53" s="2"/>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>55</v>
+        <v>328</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>56</v>
@@ -4271,50 +4307,49 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-      <c r="R54" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="S54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="T54" s="2"/>
-      <c r="U54" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="U54" s="2"/>
       <c r="V54" s="2"/>
-      <c r="W54" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y54" s="2"/>
-      <c r="Z54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD54" s="2"/>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>333</v>
+        <v>86</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -4324,48 +4359,53 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-      <c r="R55" s="2" t="s">
+      <c r="R55" s="2"/>
+      <c r="S55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T55" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
       <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X55" s="2"/>
+      <c r="V55" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y55" s="2"/>
-      <c r="Z55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD55" s="2"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -4375,30 +4415,29 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-      <c r="R56" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="R56" s="2"/>
       <c r="S56" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="T56" s="2"/>
-      <c r="U56" s="2" t="s">
-        <v>340</v>
-      </c>
+      <c r="U56" s="2"/>
       <c r="V56" s="2"/>
-      <c r="W56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA56" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD56" s="2"/>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>341</v>
       </c>
@@ -4414,13 +4453,13 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -4430,163 +4469,112 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2" t="s">
+      <c r="R57" s="2"/>
+      <c r="S57" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
+      <c r="T57" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z57" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA57" s="2"/>
+      <c r="V57" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="AD57" s="2"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>348</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="B58" t="s">
+        <v>328</v>
+      </c>
+      <c r="C58" t="s">
         <v>349</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" s="2" t="s">
+      <c r="D58" t="s">
+        <v>350</v>
+      </c>
+      <c r="G58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="X58" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>353</v>
-      </c>
-      <c r="B59" t="s">
-        <v>333</v>
-      </c>
-      <c r="C59" t="s">
-        <v>354</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T59" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G59" t="s">
-        <v>168</v>
-      </c>
-      <c r="H59" t="s">
-        <v>56</v>
-      </c>
-      <c r="I59" t="s">
-        <v>57</v>
-      </c>
-      <c r="W59" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA60" s="2"/>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\ontologies\BCW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12426F60-0523-4424-81B5-062B77A2FB66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828FDE61-4D1E-4D91-A0C5-01B322F3C59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1096,7 +1096,7 @@
     <t>REL 'can influence'</t>
   </si>
   <si>
-    <t>REL 'can be a standard for evaluation of'</t>
+    <t>REL 'evaluation standard for'</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -1268,7 +1268,11 @@
       </c>
       <c r="J10" s="2" t="inlineStr"/>
       <c r="K10" s="2" t="inlineStr"/>
-      <c r="L10" s="2" t="inlineStr"/>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>outcome behaviour</t>
+        </is>
+      </c>
       <c r="M10" s="2" t="inlineStr"/>
       <c r="N10" s="2" t="inlineStr"/>
       <c r="O10" s="2" t="inlineStr"/>
@@ -1290,7 +1294,11 @@
         </is>
       </c>
       <c r="Y10" s="2" t="inlineStr"/>
-      <c r="Z10" s="2" t="inlineStr"/>
+      <c r="Z10" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="AA10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -2329,7 +2329,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>psychological process</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -3220,8 +3220,10 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="n">
-        <v>0</v>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">

--- a/BCW/BCIO_BCW_Defs.xlsx
+++ b/BCW/BCIO_BCW_Defs.xlsx
@@ -2105,77 +2105,77 @@
       <c r="AE20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:0050003</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OGMS:0000060</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A process in which at least one bodily component of an organsim participates.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>A process occurring in an organism.</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="H21" s="2" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="I21" s="2" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Mechanism of action</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
-      <c r="Q21" s="2" t="inlineStr"/>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr"/>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr"/>
-      <c r="W21" s="2" t="inlineStr"/>
-      <c r="X21" s="2" t="inlineStr"/>
-      <c r="Y21" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z21" s="2" t="inlineStr"/>
-      <c r="AA21" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
-      <c r="AB21" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="AC21" s="2" t="inlineStr"/>
-      <c r="AD21" s="2" t="inlineStr"/>
-      <c r="AE21" s="2" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>RW; JH</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
@@ -2731,7 +2731,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050001</t>
+          <t>BCIO:050001</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -2789,7 +2789,7 @@
       <c r="Z29" s="2" t="inlineStr"/>
       <c r="AA29" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="AB29" s="2" t="inlineStr">
@@ -3878,7 +3878,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050002</t>
+          <t>BCIO:050002</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -3936,7 +3936,7 @@
       <c r="Z44" s="2" t="inlineStr"/>
       <c r="AA44" s="2" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>RW; JH</t>
         </is>
       </c>
       <c r="AB44" s="2" t="inlineStr">
@@ -5037,12 +5037,12 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>BCIO:0050000</t>
+          <t>BCIO:050000</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>training behaviour change inervention</t>
+          <t>training behaviour change intervention</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -5101,7 +5101,11 @@
         </is>
       </c>
       <c r="Z59" s="2" t="inlineStr"/>
-      <c r="AA59" s="2" t="inlineStr"/>
+      <c r="AA59" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="AB59" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
